--- a/estimation/notsensor/DenseModel/Dense_1st_torch/IWALQQ_1st_correction/angle/4_fold/83.xlsx
+++ b/estimation/notsensor/DenseModel/Dense_1st_torch/IWALQQ_1st_correction/angle/4_fold/83.xlsx
@@ -1,37 +1,63 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>X_True</t>
+  </si>
+  <si>
+    <t>Y_True</t>
+  </si>
+  <si>
+    <t>Z_True</t>
+  </si>
+  <si>
+    <t>X_Pred</t>
+  </si>
+  <si>
+    <t>Y_Pred</t>
+  </si>
+  <si>
+    <t>Z_Pred</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +72,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -420,5809 +388,5185 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G304"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>X_True</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Y_True</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Z_True</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>X_Pred</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Y_Pred</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Z_Pred</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
+    <row r="1" spans="1:7">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="n">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
         <v>0.6199668692622649</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>11.70610380085235</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>8.037115772913141</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>-11.20226483996806</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>-6.774810820533591</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>-10.34592999951994</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>0.2083223042490437</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>11.55550431033128</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>7.738848184480083</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>-11.79300427426866</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>-6.689433063245553</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>-10.32177036517775</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>-0.2816741542828996</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>11.37623990777645</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>7.383808729453226</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>-12.6020931397971</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>-6.598325488632351</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>-10.2543543870174</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
+    <row r="5" spans="1:7">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>-0.8058795333063441</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>11.1844602276371</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>7.003982326935466</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>-13.42103596476623</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>-6.518705713161172</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5">
         <v>-10.31820367734264</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
+    <row r="6" spans="1:7">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>-1.321995596524677</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>10.99564001044821</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>6.630017244892535</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>-14.16144146502034</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>-6.356768583771598</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6">
         <v>-10.45376734607109</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
+    <row r="7" spans="1:7">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>-1.801419629967308</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>10.82024351231226</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>6.282638310623864</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
         <v>-14.91159224133895</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>-6.244604738146635</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7">
         <v>-10.5826602913692</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
+    <row r="8" spans="1:7">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>-2.232263538346199</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>10.66261997343744</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>5.970459347349764</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
         <v>-15.65906216104502</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8">
         <v>-6.134710205021642</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8">
         <v>-10.73425600863711</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
+    <row r="9" spans="1:7">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>-2.621222296074722</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>10.52032004838987</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>5.688629340280732</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
         <v>-16.42303384003504</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9">
         <v>-6.020615849164455</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9">
         <v>-10.66213803998207</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
+    <row r="10" spans="1:7">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>-2.983046365577541</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>10.38794730462818</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>5.426460464944859</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
         <v>-17.07770627037592</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10">
         <v>-5.908342244858621</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10">
         <v>-10.74930369070872</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
+    <row r="11" spans="1:7">
+      <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>-3.33770067077176</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>10.25819760740665</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>5.169486625549496</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
         <v>-17.75602186351086</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11">
         <v>-5.782427914530888</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11">
         <v>-10.63817527893345</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
+    <row r="12" spans="1:7">
+      <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>-3.707282617553793</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>10.12298665693686</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12">
         <v>4.901696581992061</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12">
         <v>-18.45933916164214</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F12">
         <v>-5.677713991143002</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G12">
         <v>-10.40035234030489</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
+    <row r="13" spans="1:7">
+      <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>-4.11454542560529</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13">
         <v>9.973990225030212</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13">
         <v>4.606603907533712</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13">
         <v>-19.09550824718769</v>
       </c>
-      <c r="F13" t="n">
+      <c r="F13">
         <v>-5.582471620638726</v>
       </c>
-      <c r="G13" t="n">
+      <c r="G13">
         <v>-10.17050933250891</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
+    <row r="14" spans="1:7">
+      <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>-4.573200636336115</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14">
         <v>9.80619196669859</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14">
         <v>4.274273554471609</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14">
         <v>-19.95273931989167</v>
       </c>
-      <c r="F14" t="n">
+      <c r="F14">
         <v>-5.450766173798021</v>
       </c>
-      <c r="G14" t="n">
+      <c r="G14">
         <v>-9.75510340186165</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
+    <row r="15" spans="1:7">
+      <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>-5.087770043964299</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15">
         <v>9.617937590926509</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15">
         <v>3.901429141258584</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15">
         <v>-20.60694984588378</v>
       </c>
-      <c r="F15" t="n">
+      <c r="F15">
         <v>-5.230167792595499</v>
       </c>
-      <c r="G15" t="n">
+      <c r="G15">
         <v>-9.341462768413372</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
+    <row r="16" spans="1:7">
+      <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>-5.656757961321296</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16">
         <v>9.409774292417135</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16">
         <v>3.489154406252259</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16">
         <v>-21.37604775745048</v>
       </c>
-      <c r="F16" t="n">
+      <c r="F16">
         <v>-5.062217130045302</v>
       </c>
-      <c r="G16" t="n">
+      <c r="G16">
         <v>-8.889940432061303</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
+    <row r="17" spans="1:7">
+      <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>-6.269046829002416</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17">
         <v>9.185769412086602</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D17">
         <v>3.045504861208976</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E17">
         <v>-22.17539134691441</v>
       </c>
-      <c r="F17" t="n">
+      <c r="F17">
         <v>-4.793909756645945</v>
       </c>
-      <c r="G17" t="n">
+      <c r="G17">
         <v>-8.497142117958616</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
+    <row r="18" spans="1:7">
+      <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>-6.904490965686242</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18">
         <v>8.953293214481242</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D18">
         <v>2.585077574317617</v>
       </c>
-      <c r="E18" t="n">
+      <c r="E18">
         <v>-22.904271880819</v>
       </c>
-      <c r="F18" t="n">
+      <c r="F18">
         <v>-4.545461663361303</v>
       </c>
-      <c r="G18" t="n">
+      <c r="G18">
         <v>-8.171382441536945</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
+    <row r="19" spans="1:7">
+      <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>-7.535236770227954</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19">
         <v>8.722535894002023</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D19">
         <v>2.128054584037439</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E19">
         <v>-23.80484044977639</v>
       </c>
-      <c r="F19" t="n">
+      <c r="F19">
         <v>-4.30473892447517</v>
       </c>
-      <c r="G19" t="n">
+      <c r="G19">
         <v>-7.805303114592816</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
+    <row r="20" spans="1:7">
+      <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>-8.136243800416977</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20">
         <v>8.502658455457093</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D20">
         <v>1.692579582636566</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E20">
         <v>-24.47668938202837</v>
       </c>
-      <c r="F20" t="n">
+      <c r="F20">
         <v>-3.999241996527129</v>
       </c>
-      <c r="G20" t="n">
+      <c r="G20">
         <v>-7.653631929229045</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
+    <row r="21" spans="1:7">
+      <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>-8.681693495304136</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21">
         <v>8.303106577121856</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D21">
         <v>1.297360068198631</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E21">
         <v>-25.19429401565385</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F21">
         <v>-3.737765340731257</v>
       </c>
-      <c r="G21" t="n">
+      <c r="G21">
         <v>-7.491250836695245</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
+    <row r="22" spans="1:7">
+      <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>-9.150323494040904</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C22">
         <v>8.13165905892037</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D22">
         <v>0.9578022275986627</v>
       </c>
-      <c r="E22" t="n">
+      <c r="E22">
         <v>-25.87561651552988</v>
       </c>
-      <c r="F22" t="n">
+      <c r="F22">
         <v>-3.500174658995108</v>
       </c>
-      <c r="G22" t="n">
+      <c r="G22">
         <v>-7.499197955312219</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
+    <row r="23" spans="1:7">
+      <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23">
         <v>-9.525435393690701</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23">
         <v>7.994424984242774</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D23">
         <v>0.686005315382671</v>
       </c>
-      <c r="E23" t="n">
+      <c r="E23">
         <v>-26.3956981698888</v>
       </c>
-      <c r="F23" t="n">
+      <c r="F23">
         <v>-3.262686694816907</v>
       </c>
-      <c r="G23" t="n">
+      <c r="G23">
         <v>-7.620724558209373</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
+    <row r="24" spans="1:7">
+      <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24">
         <v>-9.800475332035763</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C24">
         <v>7.893802072857117</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D24">
         <v>0.4867180998929601</v>
       </c>
-      <c r="E24" t="n">
+      <c r="E24">
         <v>-26.78238003692976</v>
       </c>
-      <c r="F24" t="n">
+      <c r="F24">
         <v>-3.076688391661917</v>
       </c>
-      <c r="G24" t="n">
+      <c r="G24">
         <v>-7.750404996681747</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
+    <row r="25" spans="1:7">
+      <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25">
         <v>-9.972931138824293</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C25">
         <v>7.83070939813926</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D25">
         <v>0.3617608382795575</v>
       </c>
-      <c r="E25" t="n">
+      <c r="E25">
         <v>-27.11704332304462</v>
       </c>
-      <c r="F25" t="n">
+      <c r="F25">
         <v>-2.927805089989359</v>
       </c>
-      <c r="G25" t="n">
+      <c r="G25">
         <v>-7.874553295604898</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
+    <row r="26" spans="1:7">
+      <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26">
         <v>-10.0451662208622</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C26">
         <v>7.804282311576592</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D26">
         <v>0.3094210637485426</v>
       </c>
-      <c r="E26" t="n">
+      <c r="E26">
         <v>-27.37864873799372</v>
       </c>
-      <c r="F26" t="n">
+      <c r="F26">
         <v>-2.766299954200345</v>
       </c>
-      <c r="G26" t="n">
+      <c r="G26">
         <v>-8.050561301275071</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
+    <row r="27" spans="1:7">
+      <c r="A27" s="1">
         <v>25</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B27">
         <v>-10.0244097078688</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C27">
         <v>7.811876047890586</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D27">
         <v>0.3244607256340831</v>
       </c>
-      <c r="E27" t="n">
+      <c r="E27">
         <v>-27.39974236992145</v>
       </c>
-      <c r="F27" t="n">
+      <c r="F27">
         <v>-2.759832889886689</v>
       </c>
-      <c r="G27" t="n">
+      <c r="G27">
         <v>-8.287084876166084</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
+    <row r="28" spans="1:7">
+      <c r="A28" s="1">
         <v>26</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B28">
         <v>-9.919571578517425</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C28">
         <v>7.850230905963332</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D28">
         <v>0.4004238712095959</v>
       </c>
-      <c r="E28" t="n">
+      <c r="E28">
         <v>-27.46823101081346</v>
       </c>
-      <c r="F28" t="n">
+      <c r="F28">
         <v>-2.7147117174562</v>
       </c>
-      <c r="G28" t="n">
+      <c r="G28">
         <v>-8.478389936746391</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
+    <row r="29" spans="1:7">
+      <c r="A29" s="1">
         <v>27</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B29">
         <v>-9.742828828888067</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C29">
         <v>7.914891951704625</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D29">
         <v>0.5284873468036034</v>
       </c>
-      <c r="E29" t="n">
+      <c r="E29">
         <v>-27.38983406879267</v>
       </c>
-      <c r="F29" t="n">
+      <c r="F29">
         <v>-2.682983589194173</v>
       </c>
-      <c r="G29" t="n">
+      <c r="G29">
         <v>-8.590574901863805</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
+    <row r="30" spans="1:7">
+      <c r="A30" s="1">
         <v>28</v>
       </c>
-      <c r="B30" t="n">
+      <c r="B30">
         <v>-9.50509098031376</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C30">
         <v>8.001867954586423</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D30">
         <v>0.7007463799606305</v>
       </c>
-      <c r="E30" t="n">
+      <c r="E30">
         <v>-27.25809623143553</v>
       </c>
-      <c r="F30" t="n">
+      <c r="F30">
         <v>-2.65338685025955</v>
       </c>
-      <c r="G30" t="n">
+      <c r="G30">
         <v>-8.697165384222366</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
+    <row r="31" spans="1:7">
+      <c r="A31" s="1">
         <v>29</v>
       </c>
-      <c r="B31" t="n">
+      <c r="B31">
         <v>-9.218537971763938</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C31">
         <v>8.106702903867236</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D31">
         <v>0.9083756846634573</v>
       </c>
-      <c r="E31" t="n">
+      <c r="E31">
         <v>-27.01761614773221</v>
       </c>
-      <c r="F31" t="n">
+      <c r="F31">
         <v>-2.723802221334522</v>
       </c>
-      <c r="G31" t="n">
+      <c r="G31">
         <v>-8.677737271368894</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
+    <row r="32" spans="1:7">
+      <c r="A32" s="1">
         <v>30</v>
       </c>
-      <c r="B32" t="n">
+      <c r="B32">
         <v>-8.893244297357459</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C32">
         <v>8.225711062358942</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D32">
         <v>1.144075528762293</v>
       </c>
-      <c r="E32" t="n">
+      <c r="E32">
         <v>-26.80073847055685</v>
       </c>
-      <c r="F32" t="n">
+      <c r="F32">
         <v>-2.776512067542057</v>
       </c>
-      <c r="G32" t="n">
+      <c r="G32">
         <v>-8.616972329309537</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
+    <row r="33" spans="1:7">
+      <c r="A33" s="1">
         <v>31</v>
       </c>
-      <c r="B33" t="n">
+      <c r="B33">
         <v>-8.540030348241194</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C33">
         <v>8.35493380766626</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D33">
         <v>1.400005721355607</v>
       </c>
-      <c r="E33" t="n">
+      <c r="E33">
         <v>-26.49649747282553</v>
       </c>
-      <c r="F33" t="n">
+      <c r="F33">
         <v>-2.83501800046698</v>
       </c>
-      <c r="G33" t="n">
+      <c r="G33">
         <v>-8.567711350037595</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
+    <row r="34" spans="1:7">
+      <c r="A34" s="1">
         <v>32</v>
       </c>
-      <c r="B34" t="n">
+      <c r="B34">
         <v>-8.165243257501805</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C34">
         <v>8.492049051535478</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D34">
         <v>1.671567284975642</v>
       </c>
-      <c r="E34" t="n">
+      <c r="E34">
         <v>-26.16641247393243</v>
       </c>
-      <c r="F34" t="n">
+      <c r="F34">
         <v>-2.91785142727732</v>
       </c>
-      <c r="G34" t="n">
+      <c r="G34">
         <v>-8.44611912270925</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
+    <row r="35" spans="1:7">
+      <c r="A35" s="1">
         <v>33</v>
       </c>
-      <c r="B35" t="n">
+      <c r="B35">
         <v>-7.77439082449482</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C35">
         <v>8.635041774584991</v>
       </c>
-      <c r="D35" t="n">
+      <c r="D35">
         <v>1.954769402857224</v>
       </c>
-      <c r="E35" t="n">
+      <c r="E35">
         <v>-25.73586327917916</v>
       </c>
-      <c r="F35" t="n">
+      <c r="F35">
         <v>-2.957023265020903</v>
       </c>
-      <c r="G35" t="n">
+      <c r="G35">
         <v>-8.265507563191177</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
+    <row r="36" spans="1:7">
+      <c r="A36" s="1">
         <v>34</v>
       </c>
-      <c r="B36" t="n">
+      <c r="B36">
         <v>-7.372153856389862</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C36">
         <v>8.782199511171168</v>
       </c>
-      <c r="D36" t="n">
+      <c r="D36">
         <v>2.24622047655581</v>
       </c>
-      <c r="E36" t="n">
+      <c r="E36">
         <v>-25.46648247435888</v>
       </c>
-      <c r="F36" t="n">
+      <c r="F36">
         <v>-3.078300394627765</v>
       </c>
-      <c r="G36" t="n">
+      <c r="G36">
         <v>-8.109872662183594</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
+    <row r="37" spans="1:7">
+      <c r="A37" s="1">
         <v>35</v>
       </c>
-      <c r="B37" t="n">
+      <c r="B37">
         <v>-6.965086305939427</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C37">
         <v>8.931124508403981</v>
       </c>
-      <c r="D37" t="n">
+      <c r="D37">
         <v>2.541171672129846</v>
       </c>
-      <c r="E37" t="n">
+      <c r="E37">
         <v>-25.05787373617278</v>
       </c>
-      <c r="F37" t="n">
+      <c r="F37">
         <v>-3.130547183457135</v>
       </c>
-      <c r="G37" t="n">
+      <c r="G37">
         <v>-7.899900732151608</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
+    <row r="38" spans="1:7">
+      <c r="A38" s="1">
         <v>36</v>
       </c>
-      <c r="B38" t="n">
+      <c r="B38">
         <v>-6.558639729991842</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C38">
         <v>9.079822323131047</v>
       </c>
-      <c r="D38" t="n">
+      <c r="D38">
         <v>2.83567292475993</v>
       </c>
-      <c r="E38" t="n">
+      <c r="E38">
         <v>-24.75350594116924</v>
       </c>
-      <c r="F38" t="n">
+      <c r="F38">
         <v>-3.240382074129127</v>
       </c>
-      <c r="G38" t="n">
+      <c r="G38">
         <v>-7.686227584200569</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
+    <row r="39" spans="1:7">
+      <c r="A39" s="1">
         <v>37</v>
       </c>
-      <c r="B39" t="n">
+      <c r="B39">
         <v>-6.158375030565149</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C39">
         <v>9.226258508448577</v>
       </c>
-      <c r="D39" t="n">
+      <c r="D39">
         <v>3.125694940789823</v>
       </c>
-      <c r="E39" t="n">
+      <c r="E39">
         <v>-24.29264766988264</v>
       </c>
-      <c r="F39" t="n">
+      <c r="F39">
         <v>-3.316286207615049</v>
       </c>
-      <c r="G39" t="n">
+      <c r="G39">
         <v>-7.45552817757757</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
+    <row r="40" spans="1:7">
+      <c r="A40" s="1">
         <v>38</v>
       </c>
-      <c r="B40" t="n">
+      <c r="B40">
         <v>-5.773668573122444</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C40">
         <v>9.367002736394783</v>
       </c>
-      <c r="D40" t="n">
+      <c r="D40">
         <v>3.404443835026712</v>
       </c>
-      <c r="E40" t="n">
+      <c r="E40">
         <v>-23.86618768715829</v>
       </c>
-      <c r="F40" t="n">
+      <c r="F40">
         <v>-3.392476127854936</v>
       </c>
-      <c r="G40" t="n">
+      <c r="G40">
         <v>-7.225498140152697</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
+    <row r="41" spans="1:7">
+      <c r="A41" s="1">
         <v>39</v>
       </c>
-      <c r="B41" t="n">
+      <c r="B41">
         <v>-5.412690402060085</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C41">
         <v>9.499066009596199</v>
       </c>
-      <c r="D41" t="n">
+      <c r="D41">
         <v>3.665999793032103</v>
       </c>
-      <c r="E41" t="n">
+      <c r="E41">
         <v>-23.5490948801932</v>
       </c>
-      <c r="F41" t="n">
+      <c r="F41">
         <v>-3.496195181992059</v>
       </c>
-      <c r="G41" t="n">
+      <c r="G41">
         <v>-6.948697570619501</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
+    <row r="42" spans="1:7">
+      <c r="A42" s="1">
         <v>40</v>
       </c>
-      <c r="B42" t="n">
+      <c r="B42">
         <v>-5.08216642417894</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C42">
         <v>9.619987666055575</v>
       </c>
-      <c r="D42" t="n">
+      <c r="D42">
         <v>3.905489387164712</v>
       </c>
-      <c r="E42" t="n">
+      <c r="E42">
         <v>-23.04068310335205</v>
       </c>
-      <c r="F42" t="n">
+      <c r="F42">
         <v>-3.600311852482526</v>
       </c>
-      <c r="G42" t="n">
+      <c r="G42">
         <v>-6.828864078047021</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
+    <row r="43" spans="1:7">
+      <c r="A43" s="1">
         <v>41</v>
       </c>
-      <c r="B43" t="n">
+      <c r="B43">
         <v>-4.786180623563663</v>
       </c>
-      <c r="C43" t="n">
+      <c r="C43">
         <v>9.728273586878313</v>
       </c>
-      <c r="D43" t="n">
+      <c r="D43">
         <v>4.119953462396973</v>
       </c>
-      <c r="E43" t="n">
+      <c r="E43">
         <v>-22.71598698852808</v>
       </c>
-      <c r="F43" t="n">
+      <c r="F43">
         <v>-3.675676718789225</v>
       </c>
-      <c r="G43" t="n">
+      <c r="G43">
         <v>-6.664261598517476</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
+    <row r="44" spans="1:7">
+      <c r="A44" s="1">
         <v>42</v>
       </c>
-      <c r="B44" t="n">
+      <c r="B44">
         <v>-4.531616806842778</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C44">
         <v>9.821405342673591</v>
       </c>
-      <c r="D44" t="n">
+      <c r="D44">
         <v>4.304404180732619</v>
       </c>
-      <c r="E44" t="n">
+      <c r="E44">
         <v>-22.23974549103742</v>
       </c>
-      <c r="F44" t="n">
+      <c r="F44">
         <v>-3.768593861993843</v>
       </c>
-      <c r="G44" t="n">
+      <c r="G44">
         <v>-6.447740350252839</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
+    <row r="45" spans="1:7">
+      <c r="A45" s="1">
         <v>43</v>
       </c>
-      <c r="B45" t="n">
+      <c r="B45">
         <v>-4.320438050661416</v>
       </c>
-      <c r="C45" t="n">
+      <c r="C45">
         <v>9.898664745063041</v>
       </c>
-      <c r="D45" t="n">
+      <c r="D45">
         <v>4.457419144825451</v>
       </c>
-      <c r="E45" t="n">
+      <c r="E45">
         <v>-21.84066919063746</v>
       </c>
-      <c r="F45" t="n">
+      <c r="F45">
         <v>-3.858899162777434</v>
       </c>
-      <c r="G45" t="n">
+      <c r="G45">
         <v>-6.263361948384521</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
+    <row r="46" spans="1:7">
+      <c r="A46" s="1">
         <v>44</v>
       </c>
-      <c r="B46" t="n">
+      <c r="B46">
         <v>-4.154863001287695</v>
       </c>
-      <c r="C46" t="n">
+      <c r="C46">
         <v>9.959240105939923</v>
       </c>
-      <c r="D46" t="n">
+      <c r="D46">
         <v>4.577390777828302</v>
       </c>
-      <c r="E46" t="n">
+      <c r="E46">
         <v>-21.46517265439544</v>
       </c>
-      <c r="F46" t="n">
+      <c r="F46">
         <v>-3.936730078842267</v>
       </c>
-      <c r="G46" t="n">
+      <c r="G46">
         <v>-6.100537890940196</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
+    <row r="47" spans="1:7">
+      <c r="A47" s="1">
         <v>45</v>
       </c>
-      <c r="B47" t="n">
+      <c r="B47">
         <v>-4.036547783699181</v>
       </c>
-      <c r="C47" t="n">
+      <c r="C47">
         <v>10.00252553469118</v>
       </c>
-      <c r="D47" t="n">
+      <c r="D47">
         <v>4.663119092069315</v>
       </c>
-      <c r="E47" t="n">
+      <c r="E47">
         <v>-20.98714693814576</v>
       </c>
-      <c r="F47" t="n">
+      <c r="F47">
         <v>-4.056334734662877</v>
       </c>
-      <c r="G47" t="n">
+      <c r="G47">
         <v>-5.969935429209618</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
+    <row r="48" spans="1:7">
+      <c r="A48" s="1">
         <v>46</v>
       </c>
-      <c r="B48" t="n">
+      <c r="B48">
         <v>-3.967722191104773</v>
       </c>
-      <c r="C48" t="n">
+      <c r="C48">
         <v>10.02770526512001</v>
       </c>
-      <c r="D48" t="n">
+      <c r="D48">
         <v>4.71298843390054</v>
       </c>
-      <c r="E48" t="n">
+      <c r="E48">
         <v>-20.61389652501154</v>
       </c>
-      <c r="F48" t="n">
+      <c r="F48">
         <v>-4.152941426279563</v>
       </c>
-      <c r="G48" t="n">
+      <c r="G48">
         <v>-5.766683440931375</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
+    <row r="49" spans="1:7">
+      <c r="A49" s="1">
         <v>47</v>
       </c>
-      <c r="B49" t="n">
+      <c r="B49">
         <v>-3.946143700217617</v>
       </c>
-      <c r="C49" t="n">
+      <c r="C49">
         <v>10.03559972070141</v>
       </c>
-      <c r="D49" t="n">
+      <c r="D49">
         <v>4.728623680873205</v>
       </c>
-      <c r="E49" t="n">
+      <c r="E49">
         <v>-20.13136497712423</v>
       </c>
-      <c r="F49" t="n">
+      <c r="F49">
         <v>-4.215760668270864</v>
       </c>
-      <c r="G49" t="n">
+      <c r="G49">
         <v>-5.657927352343579</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
+    <row r="50" spans="1:7">
+      <c r="A50" s="1">
         <v>48</v>
       </c>
-      <c r="B50" t="n">
+      <c r="B50">
         <v>-3.968666986527362</v>
       </c>
-      <c r="C50" t="n">
+      <c r="C50">
         <v>10.02735961326066</v>
       </c>
-      <c r="D50" t="n">
+      <c r="D50">
         <v>4.712303858234518</v>
       </c>
-      <c r="E50" t="n">
+      <c r="E50">
         <v>-19.72397439844619</v>
       </c>
-      <c r="F50" t="n">
+      <c r="F50">
         <v>-4.318011027002823</v>
       </c>
-      <c r="G50" t="n">
+      <c r="G50">
         <v>-5.591138087501082</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
+    <row r="51" spans="1:7">
+      <c r="A51" s="1">
         <v>49</v>
       </c>
-      <c r="B51" t="n">
+      <c r="B51">
         <v>-4.029367076655085</v>
       </c>
-      <c r="C51" t="n">
+      <c r="C51">
         <v>10.0051525846132</v>
       </c>
-      <c r="D51" t="n">
+      <c r="D51">
         <v>4.668322056848451</v>
       </c>
-      <c r="E51" t="n">
+      <c r="E51">
         <v>-19.32235762412793</v>
       </c>
-      <c r="F51" t="n">
+      <c r="F51">
         <v>-4.405093150222122</v>
       </c>
-      <c r="G51" t="n">
+      <c r="G51">
         <v>-5.47740110458605</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
+    <row r="52" spans="1:7">
+      <c r="A52" s="1">
         <v>50</v>
       </c>
-      <c r="B52" t="n">
+      <c r="B52">
         <v>-4.12103093919454</v>
       </c>
-      <c r="C52" t="n">
+      <c r="C52">
         <v>9.971617510496067</v>
       </c>
-      <c r="D52" t="n">
+      <c r="D52">
         <v>4.601904662936729</v>
       </c>
-      <c r="E52" t="n">
+      <c r="E52">
         <v>-18.755628159016</v>
       </c>
-      <c r="F52" t="n">
+      <c r="F52">
         <v>-4.452682857512953</v>
       </c>
-      <c r="G52" t="n">
+      <c r="G52">
         <v>-5.375328864314843</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
+    <row r="53" spans="1:7">
+      <c r="A53" s="1">
         <v>51</v>
       </c>
-      <c r="B53" t="n">
+      <c r="B53">
         <v>-4.234674014428411</v>
       </c>
-      <c r="C53" t="n">
+      <c r="C53">
         <v>9.930041377380064</v>
       </c>
-      <c r="D53" t="n">
+      <c r="D53">
         <v>4.519561668827152</v>
       </c>
-      <c r="E53" t="n">
+      <c r="E53">
         <v>-18.42502691408602</v>
       </c>
-      <c r="F53" t="n">
+      <c r="F53">
         <v>-4.519300992413492</v>
       </c>
-      <c r="G53" t="n">
+      <c r="G53">
         <v>-5.325578983030543</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
+    <row r="54" spans="1:7">
+      <c r="A54" s="1">
         <v>52</v>
       </c>
-      <c r="B54" t="n">
+      <c r="B54">
         <v>-4.36166819962924</v>
       </c>
-      <c r="C54" t="n">
+      <c r="C54">
         <v>9.883580762529558</v>
       </c>
-      <c r="D54" t="n">
+      <c r="D54">
         <v>4.427544786826886</v>
       </c>
-      <c r="E54" t="n">
+      <c r="E54">
         <v>-17.95303312521456</v>
       </c>
-      <c r="F54" t="n">
+      <c r="F54">
         <v>-4.59989120029705</v>
       </c>
-      <c r="G54" t="n">
+      <c r="G54">
         <v>-5.289524920535364</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
+    <row r="55" spans="1:7">
+      <c r="A55" s="1">
         <v>53</v>
       </c>
-      <c r="B55" t="n">
+      <c r="B55">
         <v>-4.493512783157636</v>
       </c>
-      <c r="C55" t="n">
+      <c r="C55">
         <v>9.835345637387796</v>
       </c>
-      <c r="D55" t="n">
+      <c r="D55">
         <v>4.332013424774985</v>
       </c>
-      <c r="E55" t="n">
+      <c r="E55">
         <v>-17.55465420981178</v>
       </c>
-      <c r="F55" t="n">
+      <c r="F55">
         <v>-4.632470890249155</v>
       </c>
-      <c r="G55" t="n">
+      <c r="G55">
         <v>-5.399025846417153</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
+    <row r="56" spans="1:7">
+      <c r="A56" s="1">
         <v>54</v>
       </c>
-      <c r="B56" t="n">
+      <c r="B56">
         <v>-4.622215542769411</v>
       </c>
-      <c r="C56" t="n">
+      <c r="C56">
         <v>9.788259943384848</v>
       </c>
-      <c r="D56" t="n">
+      <c r="D56">
         <v>4.238758551525653</v>
       </c>
-      <c r="E56" t="n">
+      <c r="E56">
         <v>-17.10260382047009</v>
       </c>
-      <c r="F56" t="n">
+      <c r="F56">
         <v>-4.701838376559586</v>
       </c>
-      <c r="G56" t="n">
+      <c r="G56">
         <v>-5.395121192761414</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
+    <row r="57" spans="1:7">
+      <c r="A57" s="1">
         <v>55</v>
       </c>
-      <c r="B57" t="n">
+      <c r="B57">
         <v>-4.741714447972448</v>
       </c>
-      <c r="C57" t="n">
+      <c r="C57">
         <v>9.744541464456734</v>
       </c>
-      <c r="D57" t="n">
+      <c r="D57">
         <v>4.152172566176483</v>
       </c>
-      <c r="E57" t="n">
+      <c r="E57">
         <v>-16.74726352203622</v>
       </c>
-      <c r="F57" t="n">
+      <c r="F57">
         <v>-4.719896785940615</v>
       </c>
-      <c r="G57" t="n">
+      <c r="G57">
         <v>-5.474877845206837</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
+    <row r="58" spans="1:7">
+      <c r="A58" s="1">
         <v>56</v>
       </c>
-      <c r="B58" t="n">
+      <c r="B58">
         <v>-4.846282749870074</v>
       </c>
-      <c r="C58" t="n">
+      <c r="C58">
         <v>9.706285322316415</v>
       </c>
-      <c r="D58" t="n">
+      <c r="D58">
         <v>4.076404930977551</v>
       </c>
-      <c r="E58" t="n">
+      <c r="E58">
         <v>-16.34330099818198</v>
       </c>
-      <c r="F58" t="n">
+      <c r="F58">
         <v>-4.759543278206002</v>
       </c>
-      <c r="G58" t="n">
+      <c r="G58">
         <v>-5.621446731045673</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
+    <row r="59" spans="1:7">
+      <c r="A59" s="1">
         <v>57</v>
       </c>
-      <c r="B59" t="n">
+      <c r="B59">
         <v>-4.932237695318668</v>
       </c>
-      <c r="C59" t="n">
+      <c r="C59">
         <v>9.674838846175257</v>
       </c>
-      <c r="D59" t="n">
+      <c r="D59">
         <v>4.014124078825346</v>
       </c>
-      <c r="E59" t="n">
+      <c r="E59">
         <v>-15.95413752738482</v>
       </c>
-      <c r="F59" t="n">
+      <c r="F59">
         <v>-4.844924763147352</v>
       </c>
-      <c r="G59" t="n">
+      <c r="G59">
         <v>-5.800486585436774</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
+    <row r="60" spans="1:7">
+      <c r="A60" s="1">
         <v>58</v>
       </c>
-      <c r="B60" t="n">
+      <c r="B60">
         <v>-4.995163210657801</v>
       </c>
-      <c r="C60" t="n">
+      <c r="C60">
         <v>9.651817649355753</v>
       </c>
-      <c r="D60" t="n">
+      <c r="D60">
         <v>3.968529788735526</v>
       </c>
-      <c r="E60" t="n">
+      <c r="E60">
         <v>-15.70406160725924</v>
       </c>
-      <c r="F60" t="n">
+      <c r="F60">
         <v>-4.872792699312334</v>
       </c>
-      <c r="G60" t="n">
+      <c r="G60">
         <v>-5.946753598892141</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
+    <row r="61" spans="1:7">
+      <c r="A61" s="1">
         <v>59</v>
       </c>
-      <c r="B61" t="n">
+      <c r="B61">
         <v>-5.032556789184956</v>
       </c>
-      <c r="C61" t="n">
+      <c r="C61">
         <v>9.638137269840069</v>
       </c>
-      <c r="D61" t="n">
+      <c r="D61">
         <v>3.941435315886556</v>
       </c>
-      <c r="E61" t="n">
+      <c r="E61">
         <v>-15.39591253645929</v>
       </c>
-      <c r="F61" t="n">
+      <c r="F61">
         <v>-4.882964222651308</v>
       </c>
-      <c r="G61" t="n">
+      <c r="G61">
         <v>-6.18601699378529</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
+    <row r="62" spans="1:7">
+      <c r="A62" s="1">
         <v>60</v>
       </c>
-      <c r="B62" t="n">
+      <c r="B62">
         <v>-5.041829130799854</v>
       </c>
-      <c r="C62" t="n">
+      <c r="C62">
         <v>9.634744998832929</v>
       </c>
-      <c r="D62" t="n">
+      <c r="D62">
         <v>3.934716803831103</v>
       </c>
-      <c r="E62" t="n">
+      <c r="E62">
         <v>-15.08478825823631</v>
       </c>
-      <c r="F62" t="n">
+      <c r="F62">
         <v>-4.918286637074083</v>
       </c>
-      <c r="G62" t="n">
+      <c r="G62">
         <v>-6.440180415779878</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
+    <row r="63" spans="1:7">
+      <c r="A63" s="1">
         <v>61</v>
       </c>
-      <c r="B63" t="n">
+      <c r="B63">
         <v>-5.023191788280699</v>
       </c>
-      <c r="C63" t="n">
+      <c r="C63">
         <v>9.641563440096599</v>
       </c>
-      <c r="D63" t="n">
+      <c r="D63">
         <v>3.948220966597859</v>
       </c>
-      <c r="E63" t="n">
+      <c r="E63">
         <v>-14.88883213097639</v>
       </c>
-      <c r="F63" t="n">
+      <c r="F63">
         <v>-4.96342520522003</v>
       </c>
-      <c r="G63" t="n">
+      <c r="G63">
         <v>-6.575455337011105</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
+    <row r="64" spans="1:7">
+      <c r="A64" s="1">
         <v>62</v>
       </c>
-      <c r="B64" t="n">
+      <c r="B64">
         <v>-4.977012303217226</v>
       </c>
-      <c r="C64" t="n">
+      <c r="C64">
         <v>9.658458129141895</v>
       </c>
-      <c r="D64" t="n">
+      <c r="D64">
         <v>3.981681492536104</v>
       </c>
-      <c r="E64" t="n">
+      <c r="E64">
         <v>-14.65726861259417</v>
       </c>
-      <c r="F64" t="n">
+      <c r="F64">
         <v>-5.007317908792167</v>
       </c>
-      <c r="G64" t="n">
+      <c r="G64">
         <v>-6.738545173401746</v>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
+    <row r="65" spans="1:7">
+      <c r="A65" s="1">
         <v>63</v>
       </c>
-      <c r="B65" t="n">
+      <c r="B65">
         <v>-4.906877881236934</v>
       </c>
-      <c r="C65" t="n">
+      <c r="C65">
         <v>9.684116692659872</v>
       </c>
-      <c r="D65" t="n">
+      <c r="D65">
         <v>4.032499180143704</v>
       </c>
-      <c r="E65" t="n">
+      <c r="E65">
         <v>-14.38935956182639</v>
       </c>
-      <c r="F65" t="n">
+      <c r="F65">
         <v>-5.084712275235725</v>
       </c>
-      <c r="G65" t="n">
+      <c r="G65">
         <v>-6.957202496901582</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
+    <row r="66" spans="1:7">
+      <c r="A66" s="1">
         <v>64</v>
       </c>
-      <c r="B66" t="n">
+      <c r="B66">
         <v>-4.817274857572754</v>
       </c>
-      <c r="C66" t="n">
+      <c r="C66">
         <v>9.716897812246716</v>
       </c>
-      <c r="D66" t="n">
+      <c r="D66">
         <v>4.097423340587233</v>
       </c>
-      <c r="E66" t="n">
+      <c r="E66">
         <v>-14.45839161959931</v>
       </c>
-      <c r="F66" t="n">
+      <c r="F66">
         <v>-5.109965055510068</v>
       </c>
-      <c r="G66" t="n">
+      <c r="G66">
         <v>-7.147641314990194</v>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
+    <row r="67" spans="1:7">
+      <c r="A67" s="1">
         <v>65</v>
       </c>
-      <c r="B67" t="n">
+      <c r="B67">
         <v>-4.714552118569661</v>
       </c>
-      <c r="C67" t="n">
+      <c r="C67">
         <v>9.754478758222033</v>
       </c>
-      <c r="D67" t="n">
+      <c r="D67">
         <v>4.171853726030819</v>
       </c>
-      <c r="E67" t="n">
+      <c r="E67">
         <v>-14.23670470302782</v>
       </c>
-      <c r="F67" t="n">
+      <c r="F67">
         <v>-5.145719049349701</v>
       </c>
-      <c r="G67" t="n">
+      <c r="G67">
         <v>-7.211474199207631</v>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
+    <row r="68" spans="1:7">
+      <c r="A68" s="1">
         <v>66</v>
       </c>
-      <c r="B68" t="n">
+      <c r="B68">
         <v>-4.606769170748823</v>
       </c>
-      <c r="C68" t="n">
+      <c r="C68">
         <v>9.793910973313118</v>
       </c>
-      <c r="D68" t="n">
+      <c r="D68">
         <v>4.249950615078036</v>
       </c>
-      <c r="E68" t="n">
+      <c r="E68">
         <v>-14.12248753160635</v>
       </c>
-      <c r="F68" t="n">
+      <c r="F68">
         <v>-5.207091961855713</v>
       </c>
-      <c r="G68" t="n">
+      <c r="G68">
         <v>-7.415969770456904</v>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
+    <row r="69" spans="1:7">
+      <c r="A69" s="1">
         <v>67</v>
       </c>
-      <c r="B69" t="n">
+      <c r="B69">
         <v>-4.50551422647321</v>
       </c>
-      <c r="C69" t="n">
+      <c r="C69">
         <v>9.830954928989193</v>
       </c>
-      <c r="D69" t="n">
+      <c r="D69">
         <v>4.323317472344913</v>
       </c>
-      <c r="E69" t="n">
+      <c r="E69">
         <v>-14.1834996619117</v>
       </c>
-      <c r="F69" t="n">
+      <c r="F69">
         <v>-5.271948159290497</v>
       </c>
-      <c r="G69" t="n">
+      <c r="G69">
         <v>-7.424202355349551</v>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
+    <row r="70" spans="1:7">
+      <c r="A70" s="1">
         <v>68</v>
       </c>
-      <c r="B70" t="n">
+      <c r="B70">
         <v>-4.424694263008798</v>
       </c>
-      <c r="C70" t="n">
+      <c r="C70">
         <v>9.860522780373994</v>
       </c>
-      <c r="D70" t="n">
+      <c r="D70">
         <v>4.381877642085048</v>
       </c>
-      <c r="E70" t="n">
+      <c r="E70">
         <v>-14.16775415778703</v>
       </c>
-      <c r="F70" t="n">
+      <c r="F70">
         <v>-5.32177528693629</v>
       </c>
-      <c r="G70" t="n">
+      <c r="G70">
         <v>-7.49937186005487</v>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
+    <row r="71" spans="1:7">
+      <c r="A71" s="1">
         <v>69</v>
       </c>
-      <c r="B71" t="n">
+      <c r="B71">
         <v>-4.375825299124418</v>
       </c>
-      <c r="C71" t="n">
+      <c r="C71">
         <v>9.878401410845026</v>
       </c>
-      <c r="D71" t="n">
+      <c r="D71">
         <v>4.417286898627881</v>
       </c>
-      <c r="E71" t="n">
+      <c r="E71">
         <v>-14.22741227436408</v>
       </c>
-      <c r="F71" t="n">
+      <c r="F71">
         <v>-5.382671888185694</v>
       </c>
-      <c r="G71" t="n">
+      <c r="G71">
         <v>-7.585700799283861</v>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
+    <row r="72" spans="1:7">
+      <c r="A72" s="1">
         <v>70</v>
       </c>
-      <c r="B72" t="n">
+      <c r="B72">
         <v>-4.368665478879849</v>
       </c>
-      <c r="C72" t="n">
+      <c r="C72">
         <v>9.881020819365627</v>
       </c>
-      <c r="D72" t="n">
+      <c r="D72">
         <v>4.422474729342695</v>
       </c>
-      <c r="E72" t="n">
+      <c r="E72">
         <v>-14.3520539929512</v>
       </c>
-      <c r="F72" t="n">
+      <c r="F72">
         <v>-5.448310064448721</v>
       </c>
-      <c r="G72" t="n">
+      <c r="G72">
         <v>-7.492550200432785</v>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
+    <row r="73" spans="1:7">
+      <c r="A73" s="1">
         <v>71</v>
       </c>
-      <c r="B73" t="n">
+      <c r="B73">
         <v>-4.410228498575401</v>
       </c>
-      <c r="C73" t="n">
+      <c r="C73">
         <v>9.865815056621093</v>
       </c>
-      <c r="D73" t="n">
+      <c r="D73">
         <v>4.392359181352428</v>
       </c>
-      <c r="E73" t="n">
+      <c r="E73">
         <v>-14.43414164128824</v>
       </c>
-      <c r="F73" t="n">
+      <c r="F73">
         <v>-5.534632574759652</v>
       </c>
-      <c r="G73" t="n">
+      <c r="G73">
         <v>-7.45002556902238</v>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
+    <row r="74" spans="1:7">
+      <c r="A74" s="1">
         <v>72</v>
       </c>
-      <c r="B74" t="n">
+      <c r="B74">
         <v>-4.5065411265254</v>
       </c>
-      <c r="C74" t="n">
+      <c r="C74">
         <v>9.830579239285452</v>
       </c>
-      <c r="D74" t="n">
+      <c r="D74">
         <v>4.322573405671474</v>
       </c>
-      <c r="E74" t="n">
+      <c r="E74">
         <v>-14.63382470265646</v>
       </c>
-      <c r="F74" t="n">
+      <c r="F74">
         <v>-5.64010776779071</v>
       </c>
-      <c r="G74" t="n">
+      <c r="G74">
         <v>-7.375413871982167</v>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
+    <row r="75" spans="1:7">
+      <c r="A75" s="1">
         <v>73</v>
       </c>
-      <c r="B75" t="n">
+      <c r="B75">
         <v>-4.658540470231037</v>
       </c>
-      <c r="C75" t="n">
+      <c r="C75">
         <v>9.774970528112815</v>
       </c>
-      <c r="D75" t="n">
+      <c r="D75">
         <v>4.212438397113711</v>
       </c>
-      <c r="E75" t="n">
+      <c r="E75">
         <v>-14.869115155147</v>
       </c>
-      <c r="F75" t="n">
+      <c r="F75">
         <v>-5.718407539805527</v>
       </c>
-      <c r="G75" t="n">
+      <c r="G75">
         <v>-7.322113708970548</v>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" s="1" t="n">
+    <row r="76" spans="1:7">
+      <c r="A76" s="1">
         <v>74</v>
       </c>
-      <c r="B76" t="n">
+      <c r="B76">
         <v>-4.868734685558845</v>
       </c>
-      <c r="C76" t="n">
+      <c r="C76">
         <v>9.698071318383597</v>
       </c>
-      <c r="D76" t="n">
+      <c r="D76">
         <v>4.060136807254531</v>
       </c>
-      <c r="E76" t="n">
+      <c r="E76">
         <v>-15.16380560119615</v>
       </c>
-      <c r="F76" t="n">
+      <c r="F76">
         <v>-5.787236587304139</v>
       </c>
-      <c r="G76" t="n">
+      <c r="G76">
         <v>-7.158095286878584</v>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" s="1" t="n">
+    <row r="77" spans="1:7">
+      <c r="A77" s="1">
         <v>75</v>
       </c>
-      <c r="B77" t="n">
+      <c r="B77">
         <v>-5.138246440814549</v>
       </c>
-      <c r="C77" t="n">
+      <c r="C77">
         <v>9.599470883735215</v>
       </c>
-      <c r="D77" t="n">
+      <c r="D77">
         <v>3.864855178085207</v>
       </c>
-      <c r="E77" t="n">
+      <c r="E77">
         <v>-15.49532159787567</v>
       </c>
-      <c r="F77" t="n">
+      <c r="F77">
         <v>-5.900566360048542</v>
       </c>
-      <c r="G77" t="n">
+      <c r="G77">
         <v>-7.032693561319727</v>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" s="1" t="n">
+    <row r="78" spans="1:7">
+      <c r="A78" s="1">
         <v>76</v>
       </c>
-      <c r="B78" t="n">
+      <c r="B78">
         <v>-5.467885608025252</v>
       </c>
-      <c r="C78" t="n">
+      <c r="C78">
         <v>9.47887293381177</v>
       </c>
-      <c r="D78" t="n">
+      <c r="D78">
         <v>3.626006696133647</v>
       </c>
-      <c r="E78" t="n">
+      <c r="E78">
         <v>-15.98111817552252</v>
       </c>
-      <c r="F78" t="n">
+      <c r="F78">
         <v>-6.00684921129733</v>
       </c>
-      <c r="G78" t="n">
+      <c r="G78">
         <v>-6.849739209608208</v>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
+    <row r="79" spans="1:7">
+      <c r="A79" s="1">
         <v>77</v>
       </c>
-      <c r="B79" t="n">
+      <c r="B79">
         <v>-5.854195401395748</v>
       </c>
-      <c r="C79" t="n">
+      <c r="C79">
         <v>9.33754212803998</v>
       </c>
-      <c r="D79" t="n">
+      <c r="D79">
         <v>3.346096063879849</v>
       </c>
-      <c r="E79" t="n">
+      <c r="E79">
         <v>-16.36195831109358</v>
       </c>
-      <c r="F79" t="n">
+      <c r="F79">
         <v>-6.074075367871523</v>
       </c>
-      <c r="G79" t="n">
+      <c r="G79">
         <v>-6.719924241051896</v>
       </c>
     </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
+    <row r="80" spans="1:7">
+      <c r="A80" s="1">
         <v>78</v>
       </c>
-      <c r="B80" t="n">
+      <c r="B80">
         <v>-6.301390871054595</v>
       </c>
-      <c r="C80" t="n">
+      <c r="C80">
         <v>9.173936397227548</v>
       </c>
-      <c r="D80" t="n">
+      <c r="D80">
         <v>3.022069159044972</v>
       </c>
-      <c r="E80" t="n">
+      <c r="E80">
         <v>-16.90236375679893</v>
       </c>
-      <c r="F80" t="n">
+      <c r="F80">
         <v>-6.192328128090764</v>
       </c>
-      <c r="G80" t="n">
+      <c r="G80">
         <v>-6.495797121212465</v>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
+    <row r="81" spans="1:7">
+      <c r="A81" s="1">
         <v>79</v>
       </c>
-      <c r="B81" t="n">
+      <c r="B81">
         <v>-6.811570667637104</v>
       </c>
-      <c r="C81" t="n">
+      <c r="C81">
         <v>8.987287953473647</v>
       </c>
-      <c r="D81" t="n">
+      <c r="D81">
         <v>2.652405350683879</v>
       </c>
-      <c r="E81" t="n">
+      <c r="E81">
         <v>-17.5615148479334</v>
       </c>
-      <c r="F81" t="n">
+      <c r="F81">
         <v>-6.283880950182971</v>
       </c>
-      <c r="G81" t="n">
+      <c r="G81">
         <v>-6.338984261665043</v>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
+    <row r="82" spans="1:7">
+      <c r="A82" s="1">
         <v>80</v>
       </c>
-      <c r="B82" t="n">
+      <c r="B82">
         <v>-7.386776275526156</v>
       </c>
-      <c r="C82" t="n">
+      <c r="C82">
         <v>8.776849923057354</v>
       </c>
-      <c r="D82" t="n">
+      <c r="D82">
         <v>2.235625429120409</v>
       </c>
-      <c r="E82" t="n">
+      <c r="E82">
         <v>-18.27437364079885</v>
       </c>
-      <c r="F82" t="n">
+      <c r="F82">
         <v>-6.375201415218693</v>
       </c>
-      <c r="G82" t="n">
+      <c r="G82">
         <v>-6.230467702251087</v>
       </c>
     </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
+    <row r="83" spans="1:7">
+      <c r="A83" s="1">
         <v>81</v>
       </c>
-      <c r="B83" t="n">
+      <c r="B83">
         <v>-8.029039474657019</v>
       </c>
-      <c r="C83" t="n">
+      <c r="C83">
         <v>8.541878982614026</v>
       </c>
-      <c r="D83" t="n">
+      <c r="D83">
         <v>1.770257216283904</v>
       </c>
-      <c r="E83" t="n">
+      <c r="E83">
         <v>-19.05045898775938</v>
       </c>
-      <c r="F83" t="n">
+      <c r="F83">
         <v>-6.492325939035321</v>
       </c>
-      <c r="G83" t="n">
+      <c r="G83">
         <v>-6.156718966481009</v>
       </c>
     </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
+    <row r="84" spans="1:7">
+      <c r="A84" s="1">
         <v>82</v>
       </c>
-      <c r="B84" t="n">
+      <c r="B84">
         <v>-8.748868912654077</v>
       </c>
-      <c r="C84" t="n">
+      <c r="C84">
         <v>8.278530560605967</v>
       </c>
-      <c r="D84" t="n">
+      <c r="D84">
         <v>1.24868640300811</v>
       </c>
-      <c r="E84" t="n">
+      <c r="E84">
         <v>-19.84551411233805</v>
       </c>
-      <c r="F84" t="n">
+      <c r="F84">
         <v>-6.582049311718444</v>
       </c>
-      <c r="G84" t="n">
+      <c r="G84">
         <v>-6.00124484532984</v>
       </c>
     </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
+    <row r="85" spans="1:7">
+      <c r="A85" s="1">
         <v>83</v>
       </c>
-      <c r="B85" t="n">
+      <c r="B85">
         <v>-9.556125094095165</v>
       </c>
-      <c r="C85" t="n">
+      <c r="C85">
         <v>7.983197207568478</v>
       </c>
-      <c r="D85" t="n">
+      <c r="D85">
         <v>0.6637683087333096</v>
       </c>
-      <c r="E85" t="n">
+      <c r="E85">
         <v>-20.78020020446923</v>
       </c>
-      <c r="F85" t="n">
+      <c r="F85">
         <v>-6.706302351219864</v>
       </c>
-      <c r="G85" t="n">
+      <c r="G85">
         <v>-5.999742045855614</v>
       </c>
     </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
+    <row r="86" spans="1:7">
+      <c r="A86" s="1">
         <v>84</v>
       </c>
-      <c r="B86" t="n">
+      <c r="B86">
         <v>-10.45764014905749</v>
       </c>
-      <c r="C86" t="n">
+      <c r="C86">
         <v>7.653379399892478</v>
       </c>
-      <c r="D86" t="n">
+      <c r="D86">
         <v>0.0105525390290001</v>
       </c>
-      <c r="E86" t="n">
+      <c r="E86">
         <v>-21.89000691495103</v>
       </c>
-      <c r="F86" t="n">
+      <c r="F86">
         <v>-6.787632291194122</v>
       </c>
-      <c r="G86" t="n">
+      <c r="G86">
         <v>-5.971831975270977</v>
       </c>
     </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
+    <row r="87" spans="1:7">
+      <c r="A87" s="1">
         <v>85</v>
       </c>
-      <c r="B87" t="n">
+      <c r="B87">
         <v>-11.4671882846122</v>
       </c>
-      <c r="C87" t="n">
+      <c r="C87">
         <v>7.284037866460224</v>
       </c>
-      <c r="D87" t="n">
+      <c r="D87">
         <v>-0.7209413598138571</v>
       </c>
-      <c r="E87" t="n">
+      <c r="E87">
         <v>-22.99773505586331</v>
       </c>
-      <c r="F87" t="n">
+      <c r="F87">
         <v>-6.861866021812298</v>
       </c>
-      <c r="G87" t="n">
+      <c r="G87">
         <v>-6.002074994384379</v>
       </c>
     </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
+    <row r="88" spans="1:7">
+      <c r="A88" s="1">
         <v>86</v>
       </c>
-      <c r="B88" t="n">
+      <c r="B88">
         <v>-12.601999304041</v>
       </c>
-      <c r="C88" t="n">
+      <c r="C88">
         <v>6.868869111934858</v>
       </c>
-      <c r="D88" t="n">
+      <c r="D88">
         <v>-1.543197682040335</v>
       </c>
-      <c r="E88" t="n">
+      <c r="E88">
         <v>-24.29060079963117</v>
       </c>
-      <c r="F88" t="n">
+      <c r="F88">
         <v>-6.95102651884522</v>
       </c>
-      <c r="G88" t="n">
+      <c r="G88">
         <v>-6.019330938565498</v>
       </c>
     </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
+    <row r="89" spans="1:7">
+      <c r="A89" s="1">
         <v>87</v>
       </c>
-      <c r="B89" t="n">
+      <c r="B89">
         <v>-13.87702392290802</v>
       </c>
-      <c r="C89" t="n">
+      <c r="C89">
         <v>6.402403441491647</v>
       </c>
-      <c r="D89" t="n">
+      <c r="D89">
         <v>-2.467049350651656</v>
       </c>
-      <c r="E89" t="n">
+      <c r="E89">
         <v>-25.70590742361842</v>
       </c>
-      <c r="F89" t="n">
+      <c r="F89">
         <v>-7.05099265446396</v>
       </c>
-      <c r="G89" t="n">
+      <c r="G89">
         <v>-6.180448760798913</v>
       </c>
     </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
+    <row r="90" spans="1:7">
+      <c r="A90" s="1">
         <v>88</v>
       </c>
-      <c r="B90" t="n">
+      <c r="B90">
         <v>-15.29737757414901</v>
       </c>
-      <c r="C90" t="n">
+      <c r="C90">
         <v>5.882769382361618</v>
       </c>
-      <c r="D90" t="n">
+      <c r="D90">
         <v>-3.496202883297304</v>
       </c>
-      <c r="E90" t="n">
+      <c r="E90">
         <v>-27.16143595374181</v>
       </c>
-      <c r="F90" t="n">
+      <c r="F90">
         <v>-7.063736672772329</v>
       </c>
-      <c r="G90" t="n">
+      <c r="G90">
         <v>-6.315510402628776</v>
       </c>
     </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
+    <row r="91" spans="1:7">
+      <c r="A91" s="1">
         <v>89</v>
       </c>
-      <c r="B91" t="n">
+      <c r="B91">
         <v>-16.88213503073522</v>
       </c>
-      <c r="C91" t="n">
+      <c r="C91">
         <v>5.302988460065979</v>
       </c>
-      <c r="D91" t="n">
+      <c r="D91">
         <v>-4.644479394155878</v>
       </c>
-      <c r="E91" t="n">
+      <c r="E91">
         <v>-28.76215641749912</v>
       </c>
-      <c r="F91" t="n">
+      <c r="F91">
         <v>-7.123176175760208</v>
       </c>
-      <c r="G91" t="n">
+      <c r="G91">
         <v>-6.546761054473762</v>
       </c>
     </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
+    <row r="92" spans="1:7">
+      <c r="A92" s="1">
         <v>90</v>
       </c>
-      <c r="B92" t="n">
+      <c r="B92">
         <v>-18.64200388732309</v>
       </c>
-      <c r="C92" t="n">
+      <c r="C92">
         <v>4.659143318620906</v>
       </c>
-      <c r="D92" t="n">
+      <c r="D92">
         <v>-5.919637344549436</v>
       </c>
-      <c r="E92" t="n">
+      <c r="E92">
         <v>-30.44546266173431</v>
       </c>
-      <c r="F92" t="n">
+      <c r="F92">
         <v>-7.13078141688531</v>
       </c>
-      <c r="G92" t="n">
+      <c r="G92">
         <v>-6.847337355426695</v>
       </c>
     </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
+    <row r="93" spans="1:7">
+      <c r="A93" s="1">
         <v>91</v>
       </c>
-      <c r="B93" t="n">
+      <c r="B93">
         <v>-20.58116512294652</v>
       </c>
-      <c r="C93" t="n">
+      <c r="C93">
         <v>3.949704353688334</v>
       </c>
-      <c r="D93" t="n">
+      <c r="D93">
         <v>-7.324706169674558</v>
       </c>
-      <c r="E93" t="n">
+      <c r="E93">
         <v>-32.28035051642826</v>
       </c>
-      <c r="F93" t="n">
+      <c r="F93">
         <v>-7.106041810217001</v>
       </c>
-      <c r="G93" t="n">
+      <c r="G93">
         <v>-7.108384780252997</v>
       </c>
     </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
+    <row r="94" spans="1:7">
+      <c r="A94" s="1">
         <v>92</v>
       </c>
-      <c r="B94" t="n">
+      <c r="B94">
         <v>-22.68748295939346</v>
       </c>
-      <c r="C94" t="n">
+      <c r="C94">
         <v>3.179111419868921</v>
       </c>
-      <c r="D94" t="n">
+      <c r="D94">
         <v>-8.850892581319243</v>
       </c>
-      <c r="E94" t="n">
+      <c r="E94">
         <v>-34.11350849405127</v>
       </c>
-      <c r="F94" t="n">
+      <c r="F94">
         <v>-7.078211564768848</v>
       </c>
-      <c r="G94" t="n">
+      <c r="G94">
         <v>-7.447709026601413</v>
       </c>
     </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
+    <row r="95" spans="1:7">
+      <c r="A95" s="1">
         <v>93</v>
       </c>
-      <c r="B95" t="n">
+      <c r="B95">
         <v>-24.96184810185336</v>
       </c>
-      <c r="C95" t="n">
+      <c r="C95">
         <v>2.347038654126604</v>
       </c>
-      <c r="D95" t="n">
+      <c r="D95">
         <v>-10.49884196268891</v>
       </c>
-      <c r="E95" t="n">
+      <c r="E95">
         <v>-36.22630879859594</v>
       </c>
-      <c r="F95" t="n">
+      <c r="F95">
         <v>-7.035055279817799</v>
       </c>
-      <c r="G95" t="n">
+      <c r="G95">
         <v>-7.859544988191997</v>
       </c>
     </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
+    <row r="96" spans="1:7">
+      <c r="A96" s="1">
         <v>94</v>
       </c>
-      <c r="B96" t="n">
+      <c r="B96">
         <v>-27.40915603147138</v>
       </c>
-      <c r="C96" t="n">
+      <c r="C96">
         <v>1.451695052695079</v>
       </c>
-      <c r="D96" t="n">
+      <c r="D96">
         <v>-12.27210145974269</v>
       </c>
-      <c r="E96" t="n">
+      <c r="E96">
         <v>-38.26200277621201</v>
       </c>
-      <c r="F96" t="n">
+      <c r="F96">
         <v>-6.980495275016111</v>
       </c>
-      <c r="G96" t="n">
+      <c r="G96">
         <v>-8.263542111477069</v>
       </c>
     </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
+    <row r="97" spans="1:7">
+      <c r="A97" s="1">
         <v>95</v>
       </c>
-      <c r="B97" t="n">
+      <c r="B97">
         <v>-29.9755824566294</v>
       </c>
-      <c r="C97" t="n">
+      <c r="C97">
         <v>0.5127721445881827</v>
       </c>
-      <c r="D97" t="n">
+      <c r="D97">
         <v>-14.13167130660359</v>
       </c>
-      <c r="E97" t="n">
+      <c r="E97">
         <v>-40.42101842224197</v>
       </c>
-      <c r="F97" t="n">
+      <c r="F97">
         <v>-6.866743449079982</v>
       </c>
-      <c r="G97" t="n">
+      <c r="G97">
         <v>-8.780032634706142</v>
       </c>
     </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
+    <row r="98" spans="1:7">
+      <c r="A98" s="1">
         <v>96</v>
       </c>
-      <c r="B98" t="n">
+      <c r="B98">
         <v>-32.68621363557035</v>
       </c>
-      <c r="C98" t="n">
+      <c r="C98">
         <v>-0.4789078367226976</v>
       </c>
-      <c r="D98" t="n">
+      <c r="D98">
         <v>-16.09572839271672</v>
       </c>
-      <c r="E98" t="n">
+      <c r="E98">
         <v>-42.59959028327405</v>
       </c>
-      <c r="F98" t="n">
+      <c r="F98">
         <v>-6.745792696229823</v>
       </c>
-      <c r="G98" t="n">
+      <c r="G98">
         <v>-9.212530448456551</v>
       </c>
     </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
+    <row r="99" spans="1:7">
+      <c r="A99" s="1">
         <v>97</v>
       </c>
-      <c r="B99" t="n">
+      <c r="B99">
         <v>-35.43377463032309</v>
       </c>
-      <c r="C99" t="n">
+      <c r="C99">
         <v>-1.484098530718717</v>
       </c>
-      <c r="D99" t="n">
+      <c r="D99">
         <v>-18.08654392055276</v>
       </c>
-      <c r="E99" t="n">
+      <c r="E99">
         <v>-44.86545527351499</v>
       </c>
-      <c r="F99" t="n">
+      <c r="F99">
         <v>-6.5887234678828</v>
       </c>
-      <c r="G99" t="n">
+      <c r="G99">
         <v>-9.715184060369445</v>
       </c>
     </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
+    <row r="100" spans="1:7">
+      <c r="A100" s="1">
         <v>98</v>
       </c>
-      <c r="B100" t="n">
+      <c r="B100">
         <v>-38.31880535783559</v>
       </c>
-      <c r="C100" t="n">
+      <c r="C100">
         <v>-2.539582301498159</v>
       </c>
-      <c r="D100" t="n">
+      <c r="D100">
         <v>-20.17696665605708</v>
       </c>
-      <c r="E100" t="n">
+      <c r="E100">
         <v>-47.17855677612993</v>
       </c>
-      <c r="F100" t="n">
+      <c r="F100">
         <v>-6.411647924207065</v>
       </c>
-      <c r="G100" t="n">
+      <c r="G100">
         <v>-10.24838584500077</v>
       </c>
     </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
+    <row r="101" spans="1:7">
+      <c r="A101" s="1">
         <v>99</v>
       </c>
-      <c r="B101" t="n">
+      <c r="B101">
         <v>-41.08355468787121</v>
       </c>
-      <c r="C101" t="n">
+      <c r="C101">
         <v>-3.551061319831524</v>
       </c>
-      <c r="D101" t="n">
+      <c r="D101">
         <v>-22.18023643144002</v>
       </c>
-      <c r="E101" t="n">
+      <c r="E101">
         <v>-49.40109559130248</v>
       </c>
-      <c r="F101" t="n">
+      <c r="F101">
         <v>-6.19990189125456</v>
       </c>
-      <c r="G101" t="n">
+      <c r="G101">
         <v>-10.66904173014314</v>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
+    <row r="102" spans="1:7">
+      <c r="A102" s="1">
         <v>100</v>
       </c>
-      <c r="B102" t="n">
+      <c r="B102">
         <v>-44.06071401833621</v>
       </c>
-      <c r="C102" t="n">
+      <c r="C102">
         <v>-4.640250189247741</v>
       </c>
-      <c r="D102" t="n">
+      <c r="D102">
         <v>-24.33741330039795</v>
       </c>
-      <c r="E102" t="n">
+      <c r="E102">
         <v>-51.77898710366367</v>
       </c>
-      <c r="F102" t="n">
+      <c r="F102">
         <v>-5.945705756561892</v>
       </c>
-      <c r="G102" t="n">
+      <c r="G102">
         <v>-11.18491538371904</v>
       </c>
     </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
+    <row r="103" spans="1:7">
+      <c r="A103" s="1">
         <v>101</v>
       </c>
-      <c r="B103" t="n">
+      <c r="B103">
         <v>-37.16202895587561</v>
       </c>
-      <c r="C103" t="n">
+      <c r="C103">
         <v>-2.11637754771652</v>
       </c>
-      <c r="D103" t="n">
+      <c r="D103">
         <v>-19.33879475463093</v>
       </c>
-      <c r="E103" t="inlineStr"/>
-      <c r="F103" t="inlineStr"/>
-      <c r="G103" t="inlineStr"/>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
+    </row>
+    <row r="104" spans="1:7">
+      <c r="A104" s="1">
         <v>102</v>
       </c>
-      <c r="B104" t="n">
+      <c r="B104">
         <v>-37.72421061515251</v>
       </c>
-      <c r="C104" t="n">
+      <c r="C104">
         <v>-2.322050787844617</v>
       </c>
-      <c r="D104" t="n">
+      <c r="D104">
         <v>-19.74613784142337</v>
       </c>
-      <c r="E104" t="inlineStr"/>
-      <c r="F104" t="inlineStr"/>
-      <c r="G104" t="inlineStr"/>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
+    </row>
+    <row r="105" spans="1:7">
+      <c r="A105" s="1">
         <v>103</v>
       </c>
-      <c r="B105" t="n">
+      <c r="B105">
         <v>-38.37890770065969</v>
       </c>
-      <c r="C105" t="n">
+      <c r="C105">
         <v>-2.561570645272699</v>
       </c>
-      <c r="D105" t="n">
+      <c r="D105">
         <v>-20.22051534435993</v>
       </c>
-      <c r="E105" t="inlineStr"/>
-      <c r="F105" t="inlineStr"/>
-      <c r="G105" t="inlineStr"/>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
+    </row>
+    <row r="106" spans="1:7">
+      <c r="A106" s="1">
         <v>104</v>
       </c>
-      <c r="B106" t="n">
+      <c r="B106">
         <v>-39.00945698099893</v>
       </c>
-      <c r="C106" t="n">
+      <c r="C106">
         <v>-2.792256067694028</v>
       </c>
-      <c r="D106" t="n">
+      <c r="D106">
         <v>-20.67739593800738</v>
       </c>
-      <c r="E106" t="inlineStr"/>
-      <c r="F106" t="inlineStr"/>
-      <c r="G106" t="inlineStr"/>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
+    </row>
+    <row r="107" spans="1:7">
+      <c r="A107" s="1">
         <v>105</v>
       </c>
-      <c r="B107" t="n">
+      <c r="B107">
         <v>-39.57184019443017</v>
       </c>
-      <c r="C107" t="n">
+      <c r="C107">
         <v>-2.998003046079678</v>
       </c>
-      <c r="D107" t="n">
+      <c r="D107">
         <v>-21.0848850660127</v>
       </c>
-      <c r="E107" t="inlineStr"/>
-      <c r="F107" t="inlineStr"/>
-      <c r="G107" t="inlineStr"/>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
+    </row>
+    <row r="108" spans="1:7">
+      <c r="A108" s="1">
         <v>106</v>
       </c>
-      <c r="B108" t="n">
+      <c r="B108">
         <v>-40.01651834304396</v>
       </c>
-      <c r="C108" t="n">
+      <c r="C108">
         <v>-3.160687819106962</v>
       </c>
-      <c r="D108" t="n">
+      <c r="D108">
         <v>-21.40708798155867</v>
       </c>
-      <c r="E108" t="inlineStr"/>
-      <c r="F108" t="inlineStr"/>
-      <c r="G108" t="inlineStr"/>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
+    </row>
+    <row r="109" spans="1:7">
+      <c r="A109" s="1">
         <v>107</v>
       </c>
-      <c r="B109" t="n">
+      <c r="B109">
         <v>-40.32184645722041</v>
       </c>
-      <c r="C109" t="n">
+      <c r="C109">
         <v>-3.272391610058888</v>
       </c>
-      <c r="D109" t="n">
+      <c r="D109">
         <v>-21.62832126880807</v>
       </c>
-      <c r="E109" t="inlineStr"/>
-      <c r="F109" t="inlineStr"/>
-      <c r="G109" t="inlineStr"/>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
+    </row>
+    <row r="110" spans="1:7">
+      <c r="A110" s="1">
         <v>108</v>
       </c>
-      <c r="B110" t="n">
+      <c r="B110">
         <v>-40.47178160075004</v>
       </c>
-      <c r="C110" t="n">
+      <c r="C110">
         <v>-3.327245136974859</v>
       </c>
-      <c r="D110" t="n">
+      <c r="D110">
         <v>-21.73696060838131</v>
       </c>
-      <c r="E110" t="inlineStr"/>
-      <c r="F110" t="inlineStr"/>
-      <c r="G110" t="inlineStr"/>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
+    </row>
+    <row r="111" spans="1:7">
+      <c r="A111" s="1">
         <v>109</v>
       </c>
-      <c r="B111" t="n">
+      <c r="B111">
         <v>-40.46399845680362</v>
       </c>
-      <c r="C111" t="n">
+      <c r="C111">
         <v>-3.324397686497904</v>
       </c>
-      <c r="D111" t="n">
+      <c r="D111">
         <v>-21.73132113255038</v>
       </c>
-      <c r="E111" t="inlineStr"/>
-      <c r="F111" t="inlineStr"/>
-      <c r="G111" t="inlineStr"/>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
+    </row>
+    <row r="112" spans="1:7">
+      <c r="A112" s="1">
         <v>110</v>
       </c>
-      <c r="B112" t="n">
+      <c r="B112">
         <v>-40.30016034379102</v>
       </c>
-      <c r="C112" t="n">
+      <c r="C112">
         <v>-3.264457780946522</v>
       </c>
-      <c r="D112" t="n">
+      <c r="D112">
         <v>-21.61260804117233</v>
       </c>
-      <c r="E112" t="inlineStr"/>
-      <c r="F112" t="inlineStr"/>
-      <c r="G112" t="inlineStr"/>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" s="1">
         <v>111</v>
       </c>
-      <c r="B113" t="n">
+      <c r="B113">
         <v>-39.99185367378396</v>
       </c>
-      <c r="C113" t="n">
+      <c r="C113">
         <v>-3.151664290217887</v>
       </c>
-      <c r="D113" t="n">
+      <c r="D113">
         <v>-21.3892165651841</v>
       </c>
-      <c r="E113" t="inlineStr"/>
-      <c r="F113" t="inlineStr"/>
-      <c r="G113" t="inlineStr"/>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" s="1">
         <v>112</v>
       </c>
-      <c r="B114" t="n">
+      <c r="B114">
         <v>-39.55215746712522</v>
       </c>
-      <c r="C114" t="n">
+      <c r="C114">
         <v>-2.990802152502728</v>
       </c>
-      <c r="D114" t="n">
+      <c r="D114">
         <v>-21.07062344298643</v>
       </c>
-      <c r="E114" t="inlineStr"/>
-      <c r="F114" t="inlineStr"/>
-      <c r="G114" t="inlineStr"/>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" s="1">
         <v>113</v>
       </c>
-      <c r="B115" t="n">
+      <c r="B115">
         <v>-39.00011397477821</v>
       </c>
-      <c r="C115" t="n">
+      <c r="C115">
         <v>-2.788837944156477</v>
       </c>
-      <c r="D115" t="n">
+      <c r="D115">
         <v>-20.67062622410607</v>
       </c>
-      <c r="E115" t="inlineStr"/>
-      <c r="F115" t="inlineStr"/>
-      <c r="G115" t="inlineStr"/>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" s="1">
         <v>114</v>
       </c>
-      <c r="B116" t="n">
+      <c r="B116">
         <v>-38.3547498994047</v>
       </c>
-      <c r="C116" t="n">
+      <c r="C116">
         <v>-2.552732553213854</v>
       </c>
-      <c r="D116" t="n">
+      <c r="D116">
         <v>-20.20301119215051</v>
       </c>
-      <c r="E116" t="inlineStr"/>
-      <c r="F116" t="inlineStr"/>
-      <c r="G116" t="inlineStr"/>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" s="1">
         <v>115</v>
       </c>
-      <c r="B117" t="n">
+      <c r="B117">
         <v>-37.63808350233421</v>
       </c>
-      <c r="C117" t="n">
+      <c r="C117">
         <v>-2.290541324552981</v>
       </c>
-      <c r="D117" t="n">
+      <c r="D117">
         <v>-19.68373224100401</v>
       </c>
-      <c r="E117" t="inlineStr"/>
-      <c r="F117" t="inlineStr"/>
-      <c r="G117" t="inlineStr"/>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" s="1">
         <v>116</v>
       </c>
-      <c r="B118" t="n">
+      <c r="B118">
         <v>-36.87616696928751</v>
       </c>
-      <c r="C118" t="n">
+      <c r="C118">
         <v>-2.011795407689657</v>
       </c>
-      <c r="D118" t="n">
+      <c r="D118">
         <v>-19.13166614754832</v>
       </c>
-      <c r="E118" t="inlineStr"/>
-      <c r="F118" t="inlineStr"/>
-      <c r="G118" t="inlineStr"/>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" s="1">
         <v>117</v>
       </c>
-      <c r="B119" t="n">
+      <c r="B119">
         <v>-36.10597762312666</v>
       </c>
-      <c r="C119" t="n">
+      <c r="C119">
         <v>-1.73002289568563</v>
       </c>
-      <c r="D119" t="n">
+      <c r="D119">
         <v>-18.57360577595359</v>
       </c>
-      <c r="E119" t="inlineStr"/>
-      <c r="F119" t="inlineStr"/>
-      <c r="G119" t="inlineStr"/>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" s="1">
         <v>118</v>
       </c>
-      <c r="B120" t="n">
+      <c r="B120">
         <v>-35.36790171070459</v>
       </c>
-      <c r="C120" t="n">
+      <c r="C120">
         <v>-1.459999030866553</v>
       </c>
-      <c r="D120" t="n">
+      <c r="D120">
         <v>-18.0388140133766</v>
       </c>
-      <c r="E120" t="inlineStr"/>
-      <c r="F120" t="inlineStr"/>
-      <c r="G120" t="inlineStr"/>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" s="1">
         <v>119</v>
       </c>
-      <c r="B121" t="n">
+      <c r="B121">
         <v>-34.70078042541625</v>
       </c>
-      <c r="C121" t="n">
+      <c r="C121">
         <v>-1.215933800278702</v>
       </c>
-      <c r="D121" t="n">
+      <c r="D121">
         <v>-17.55543423901002</v>
       </c>
-      <c r="E121" t="inlineStr"/>
-      <c r="F121" t="inlineStr"/>
-      <c r="G121" t="inlineStr"/>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" s="1">
         <v>120</v>
       </c>
-      <c r="B122" t="n">
+      <c r="B122">
         <v>-34.13675246013911</v>
       </c>
-      <c r="C122" t="n">
+      <c r="C122">
         <v>-1.009585092121593</v>
       </c>
-      <c r="D122" t="n">
+      <c r="D122">
         <v>-17.14675336402601</v>
       </c>
-      <c r="E122" t="inlineStr"/>
-      <c r="F122" t="inlineStr"/>
-      <c r="G122" t="inlineStr"/>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" s="1">
         <v>121</v>
       </c>
-      <c r="B123" t="n">
+      <c r="B123">
         <v>-33.69863125080681</v>
       </c>
-      <c r="C123" t="n">
+      <c r="C123">
         <v>-0.8492991646010839</v>
       </c>
-      <c r="D123" t="n">
+      <c r="D123">
         <v>-16.82930144638749</v>
       </c>
-      <c r="E123" t="inlineStr"/>
-      <c r="F123" t="inlineStr"/>
-      <c r="G123" t="inlineStr"/>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" s="1">
         <v>122</v>
       </c>
-      <c r="B124" t="n">
+      <c r="B124">
         <v>-33.39549839505223</v>
       </c>
-      <c r="C124" t="n">
+      <c r="C124">
         <v>-0.7383985053506212</v>
       </c>
-      <c r="D124" t="n">
+      <c r="D124">
         <v>-16.60965878972363</v>
       </c>
-      <c r="E124" t="inlineStr"/>
-      <c r="F124" t="inlineStr"/>
-      <c r="G124" t="inlineStr"/>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" s="1">
         <v>123</v>
       </c>
-      <c r="B125" t="n">
+      <c r="B125">
         <v>-33.22331154700508</v>
       </c>
-      <c r="C125" t="n">
+      <c r="C125">
         <v>-0.6754042287481921</v>
       </c>
-      <c r="D125" t="n">
+      <c r="D125">
         <v>-16.48489640903906</v>
       </c>
-      <c r="E125" t="inlineStr"/>
-      <c r="F125" t="inlineStr"/>
-      <c r="G125" t="inlineStr"/>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" s="1">
         <v>124</v>
       </c>
-      <c r="B126" t="n">
+      <c r="B126">
         <v>-33.16884792361083</v>
       </c>
-      <c r="C126" t="n">
+      <c r="C126">
         <v>-0.6554788012502182</v>
       </c>
-      <c r="D126" t="n">
+      <c r="D126">
         <v>-16.44543339898667</v>
       </c>
-      <c r="E126" t="inlineStr"/>
-      <c r="F126" t="inlineStr"/>
-      <c r="G126" t="inlineStr"/>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" s="1">
         <v>125</v>
       </c>
-      <c r="B127" t="n">
+      <c r="B127">
         <v>-33.20762086695702</v>
       </c>
-      <c r="C127" t="n">
+      <c r="C127">
         <v>-0.6696638191278409</v>
       </c>
-      <c r="D127" t="n">
+      <c r="D127">
         <v>-16.47352732586252</v>
       </c>
-      <c r="E127" t="inlineStr"/>
-      <c r="F127" t="inlineStr"/>
-      <c r="G127" t="inlineStr"/>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" s="1">
         <v>126</v>
       </c>
-      <c r="B128" t="n">
+      <c r="B128">
         <v>-33.30646164489617</v>
       </c>
-      <c r="C128" t="n">
+      <c r="C128">
         <v>-0.7058245560001091</v>
       </c>
-      <c r="D128" t="n">
+      <c r="D128">
         <v>-16.54514493722053</v>
       </c>
-      <c r="E128" t="inlineStr"/>
-      <c r="F128" t="inlineStr"/>
-      <c r="G128" t="inlineStr"/>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" s="1">
         <v>127</v>
       </c>
-      <c r="B129" t="n">
+      <c r="B129">
         <v>-33.42479190859441</v>
       </c>
-      <c r="C129" t="n">
+      <c r="C129">
         <v>-0.749115489345984</v>
       </c>
-      <c r="D129" t="n">
+      <c r="D129">
         <v>-16.63088415350483</v>
       </c>
-      <c r="E129" t="inlineStr"/>
-      <c r="F129" t="inlineStr"/>
-      <c r="G129" t="inlineStr"/>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" s="1">
         <v>128</v>
       </c>
-      <c r="B130" t="n">
+      <c r="B130">
         <v>-33.52457318538821</v>
       </c>
-      <c r="C130" t="n">
+      <c r="C130">
         <v>-0.7856203061852535</v>
       </c>
-      <c r="D130" t="n">
+      <c r="D130">
         <v>-16.70318322734078</v>
       </c>
-      <c r="E130" t="inlineStr"/>
-      <c r="F130" t="inlineStr"/>
-      <c r="G130" t="inlineStr"/>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" s="1">
         <v>129</v>
       </c>
-      <c r="B131" t="n">
+      <c r="B131">
         <v>-33.5718534744102</v>
       </c>
-      <c r="C131" t="n">
+      <c r="C131">
         <v>-0.8029177225574842</v>
       </c>
-      <c r="D131" t="n">
+      <c r="D131">
         <v>-16.73744136891627</v>
       </c>
-      <c r="E131" t="inlineStr"/>
-      <c r="F131" t="inlineStr"/>
-      <c r="G131" t="inlineStr"/>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" s="1">
         <v>130</v>
       </c>
-      <c r="B132" t="n">
+      <c r="B132">
         <v>-33.5446836863468</v>
       </c>
-      <c r="C132" t="n">
+      <c r="C132">
         <v>-0.7929777000534064</v>
       </c>
-      <c r="D132" t="n">
+      <c r="D132">
         <v>-16.7177548046988</v>
       </c>
-      <c r="E132" t="inlineStr"/>
-      <c r="F132" t="inlineStr"/>
-      <c r="G132" t="inlineStr"/>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" s="1">
         <v>131</v>
       </c>
-      <c r="B133" t="n">
+      <c r="B133">
         <v>-33.43514562485405</v>
       </c>
-      <c r="C133" t="n">
+      <c r="C133">
         <v>-0.7529033794974097</v>
       </c>
-      <c r="D133" t="n">
+      <c r="D133">
         <v>-16.63838620319175</v>
       </c>
-      <c r="E133" t="inlineStr"/>
-      <c r="F133" t="inlineStr"/>
-      <c r="G133" t="inlineStr"/>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" s="1">
         <v>132</v>
       </c>
-      <c r="B134" t="n">
+      <c r="B134">
         <v>-33.24730619297913</v>
       </c>
-      <c r="C134" t="n">
+      <c r="C134">
         <v>-0.6841826307144833</v>
       </c>
-      <c r="D134" t="n">
+      <c r="D134">
         <v>-16.50228234292053</v>
       </c>
-      <c r="E134" t="inlineStr"/>
-      <c r="F134" t="inlineStr"/>
-      <c r="G134" t="inlineStr"/>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" s="1">
         <v>133</v>
       </c>
-      <c r="B135" t="n">
+      <c r="B135">
         <v>-32.99429497318799</v>
       </c>
-      <c r="C135" t="n">
+      <c r="C135">
         <v>-0.591618889965383</v>
       </c>
-      <c r="D135" t="n">
+      <c r="D135">
         <v>-16.31895659836422</v>
       </c>
-      <c r="E135" t="inlineStr"/>
-      <c r="F135" t="inlineStr"/>
-      <c r="G135" t="inlineStr"/>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" s="1">
         <v>134</v>
       </c>
-      <c r="B136" t="n">
+      <c r="B136">
         <v>-32.69777317725813</v>
       </c>
-      <c r="C136" t="n">
+      <c r="C136">
         <v>-0.4831368761338707</v>
       </c>
-      <c r="D136" t="n">
+      <c r="D136">
         <v>-16.10410415403035</v>
       </c>
-      <c r="E136" t="inlineStr"/>
-      <c r="F136" t="inlineStr"/>
-      <c r="G136" t="inlineStr"/>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" s="1">
         <v>135</v>
       </c>
-      <c r="B137" t="n">
+      <c r="B137">
         <v>-32.38472455442204</v>
       </c>
-      <c r="C137" t="n">
+      <c r="C137">
         <v>-0.3686085497221663</v>
       </c>
-      <c r="D137" t="n">
+      <c r="D137">
         <v>-15.87727677494759</v>
       </c>
-      <c r="E137" t="inlineStr"/>
-      <c r="F137" t="inlineStr"/>
-      <c r="G137" t="inlineStr"/>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" s="1">
         <v>136</v>
       </c>
-      <c r="B138" t="n">
+      <c r="B138">
         <v>-32.08321716633555</v>
       </c>
-      <c r="C138" t="n">
+      <c r="C138">
         <v>-0.2583025651582626</v>
       </c>
-      <c r="D138" t="n">
+      <c r="D138">
         <v>-15.65881189241862</v>
       </c>
-      <c r="E138" t="inlineStr"/>
-      <c r="F138" t="inlineStr"/>
-      <c r="G138" t="inlineStr"/>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139" s="1">
         <v>137</v>
       </c>
-      <c r="B139" t="n">
+      <c r="B139">
         <v>-31.81865531677345</v>
       </c>
-      <c r="C139" t="n">
+      <c r="C139">
         <v>-0.1615130454081732</v>
       </c>
-      <c r="D139" t="n">
+      <c r="D139">
         <v>-15.46711684390573</v>
       </c>
-      <c r="E139" t="inlineStr"/>
-      <c r="F139" t="inlineStr"/>
-      <c r="G139" t="inlineStr"/>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140" s="1">
         <v>138</v>
       </c>
-      <c r="B140" t="n">
+      <c r="B140">
         <v>-31.61072488365993</v>
       </c>
-      <c r="C140" t="n">
+      <c r="C140">
         <v>-0.08544203669774318</v>
       </c>
-      <c r="D140" t="n">
+      <c r="D140">
         <v>-15.31645553529688</v>
       </c>
-      <c r="E140" t="inlineStr"/>
-      <c r="F140" t="inlineStr"/>
-      <c r="G140" t="inlineStr"/>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" s="1">
         <v>139</v>
       </c>
-      <c r="B141" t="n">
+      <c r="B141">
         <v>-31.47253602903932</v>
       </c>
-      <c r="C141" t="n">
+      <c r="C141">
         <v>-0.03488587035825469</v>
       </c>
-      <c r="D141" t="n">
+      <c r="D141">
         <v>-15.21632726950842</v>
       </c>
-      <c r="E141" t="inlineStr"/>
-      <c r="F141" t="inlineStr"/>
-      <c r="G141" t="inlineStr"/>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142" s="1">
         <v>140</v>
       </c>
-      <c r="B142" t="n">
+      <c r="B142">
         <v>-31.40811050386829</v>
       </c>
-      <c r="C142" t="n">
+      <c r="C142">
         <v>-0.01131589739627023</v>
       </c>
-      <c r="D142" t="n">
+      <c r="D142">
         <v>-15.16964610896479</v>
       </c>
-      <c r="E142" t="inlineStr"/>
-      <c r="F142" t="inlineStr"/>
-      <c r="G142" t="inlineStr"/>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143" s="1">
         <v>141</v>
       </c>
-      <c r="B143" t="n">
+      <c r="B143">
         <v>-31.41424061359735</v>
       </c>
-      <c r="C143" t="n">
+      <c r="C143">
         <v>-0.01355858800972548</v>
       </c>
-      <c r="D143" t="n">
+      <c r="D143">
         <v>-15.17408783661315</v>
       </c>
-      <c r="E143" t="inlineStr"/>
-      <c r="F143" t="inlineStr"/>
-      <c r="G143" t="inlineStr"/>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144" s="1">
         <v>142</v>
       </c>
-      <c r="B144" t="n">
+      <c r="B144">
         <v>-31.48231930145207</v>
       </c>
-      <c r="C144" t="n">
+      <c r="C144">
         <v>-0.03846506456173364</v>
       </c>
-      <c r="D144" t="n">
+      <c r="D144">
         <v>-15.2234159895294</v>
       </c>
-      <c r="E144" t="inlineStr"/>
-      <c r="F144" t="inlineStr"/>
-      <c r="G144" t="inlineStr"/>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145" s="1">
         <v>143</v>
       </c>
-      <c r="B145" t="n">
+      <c r="B145">
         <v>-31.6005797404536</v>
       </c>
-      <c r="C145" t="n">
+      <c r="C145">
         <v>-0.08173045265657526</v>
       </c>
-      <c r="D145" t="n">
+      <c r="D145">
         <v>-15.30910461254545</v>
       </c>
-      <c r="E145" t="inlineStr"/>
-      <c r="F145" t="inlineStr"/>
-      <c r="G145" t="inlineStr"/>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146" s="1">
         <v>144</v>
       </c>
-      <c r="B146" t="n">
+      <c r="B146">
         <v>-31.75402730390014</v>
       </c>
-      <c r="C146" t="n">
+      <c r="C146">
         <v>-0.1378689926516465</v>
       </c>
-      <c r="D146" t="n">
+      <c r="D146">
         <v>-15.42028896572319</v>
       </c>
-      <c r="E146" t="inlineStr"/>
-      <c r="F146" t="inlineStr"/>
-      <c r="G146" t="inlineStr"/>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147" s="1">
         <v>145</v>
       </c>
-      <c r="B147" t="n">
+      <c r="B147">
         <v>-31.9275532463161</v>
       </c>
-      <c r="C147" t="n">
+      <c r="C147">
         <v>-0.2013531747376975</v>
       </c>
-      <c r="D147" t="n">
+      <c r="D147">
         <v>-15.54602162145088</v>
       </c>
-      <c r="E147" t="inlineStr"/>
-      <c r="F147" t="inlineStr"/>
-      <c r="G147" t="inlineStr"/>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148" s="1">
         <v>146</v>
       </c>
-      <c r="B148" t="n">
+      <c r="B148">
         <v>-32.10766582638637</v>
       </c>
-      <c r="C148" t="n">
+      <c r="C148">
         <v>-0.267247067431621</v>
       </c>
-      <c r="D148" t="n">
+      <c r="D148">
         <v>-15.67652679380094</v>
       </c>
-      <c r="E148" t="inlineStr"/>
-      <c r="F148" t="inlineStr"/>
-      <c r="G148" t="inlineStr"/>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149" s="1">
         <v>147</v>
       </c>
-      <c r="B149" t="n">
+      <c r="B149">
         <v>-32.28410977131083</v>
       </c>
-      <c r="C149" t="n">
+      <c r="C149">
         <v>-0.3317987959605715</v>
       </c>
-      <c r="D149" t="n">
+      <c r="D149">
         <v>-15.80437376281058</v>
       </c>
-      <c r="E149" t="inlineStr"/>
-      <c r="F149" t="inlineStr"/>
-      <c r="G149" t="inlineStr"/>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150" s="1">
         <v>148</v>
       </c>
-      <c r="B150" t="n">
+      <c r="B150">
         <v>-32.45018378609659</v>
       </c>
-      <c r="C150" t="n">
+      <c r="C150">
         <v>-0.3925567025169772</v>
       </c>
-      <c r="D150" t="n">
+      <c r="D150">
         <v>-15.92470693395291</v>
       </c>
-      <c r="E150" t="inlineStr"/>
-      <c r="F150" t="inlineStr"/>
-      <c r="G150" t="inlineStr"/>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151" s="1">
         <v>149</v>
       </c>
-      <c r="B151" t="n">
+      <c r="B151">
         <v>-32.60413282957656</v>
       </c>
-      <c r="C151" t="n">
+      <c r="C151">
         <v>-0.4488787081616888</v>
       </c>
-      <c r="D151" t="n">
+      <c r="D151">
         <v>-16.03625464730332</v>
       </c>
-      <c r="E151" t="inlineStr"/>
-      <c r="F151" t="inlineStr"/>
-      <c r="G151" t="inlineStr"/>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152" s="1">
         <v>150</v>
       </c>
-      <c r="B152" t="n">
+      <c r="B152">
         <v>-32.74642162338071</v>
       </c>
-      <c r="C152" t="n">
+      <c r="C152">
         <v>-0.5009348305425905</v>
       </c>
-      <c r="D152" t="n">
+      <c r="D152">
         <v>-16.13935362879393</v>
       </c>
-      <c r="E152" t="inlineStr"/>
-      <c r="F152" t="inlineStr"/>
-      <c r="G152" t="inlineStr"/>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153" s="1">
         <v>151</v>
       </c>
-      <c r="B153" t="n">
+      <c r="B153">
         <v>-32.87912288129017</v>
       </c>
-      <c r="C153" t="n">
+      <c r="C153">
         <v>-0.5494833686048605</v>
       </c>
-      <c r="D153" t="n">
+      <c r="D153">
         <v>-16.23550571615944</v>
       </c>
-      <c r="E153" t="inlineStr"/>
-      <c r="F153" t="inlineStr"/>
-      <c r="G153" t="inlineStr"/>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154" s="1">
         <v>152</v>
       </c>
-      <c r="B154" t="n">
+      <c r="B154">
         <v>-33.00608074312034</v>
       </c>
-      <c r="C154" t="n">
+      <c r="C154">
         <v>-0.5959306946096455</v>
       </c>
-      <c r="D154" t="n">
+      <c r="D154">
         <v>-16.32749627913331</v>
       </c>
-      <c r="E154" t="inlineStr"/>
-      <c r="F154" t="inlineStr"/>
-      <c r="G154" t="inlineStr"/>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155" s="1">
         <v>153</v>
       </c>
-      <c r="B155" t="n">
+      <c r="B155">
         <v>-33.13412062498281</v>
       </c>
-      <c r="C155" t="n">
+      <c r="C155">
         <v>-0.6427738758727015</v>
       </c>
-      <c r="D155" t="n">
+      <c r="D155">
         <v>-16.42027084737071</v>
       </c>
-      <c r="E155" t="inlineStr"/>
-      <c r="F155" t="inlineStr"/>
-      <c r="G155" t="inlineStr"/>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156" s="1">
         <v>154</v>
       </c>
-      <c r="B156" t="n">
+      <c r="B156">
         <v>-33.26889979017336</v>
       </c>
-      <c r="C156" t="n">
+      <c r="C156">
         <v>-0.6920826129136028</v>
       </c>
-      <c r="D156" t="n">
+      <c r="D156">
         <v>-16.517928535554</v>
       </c>
-      <c r="E156" t="inlineStr"/>
-      <c r="F156" t="inlineStr"/>
-      <c r="G156" t="inlineStr"/>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
+    </row>
+    <row r="157" spans="1:4">
+      <c r="A157" s="1">
         <v>155</v>
       </c>
-      <c r="B157" t="n">
+      <c r="B157">
         <v>-33.41754862869553</v>
       </c>
-      <c r="C157" t="n">
+      <c r="C157">
         <v>-0.7464655472474236</v>
       </c>
-      <c r="D157" t="n">
+      <c r="D157">
         <v>-16.62563584996482</v>
       </c>
-      <c r="E157" t="inlineStr"/>
-      <c r="F157" t="inlineStr"/>
-      <c r="G157" t="inlineStr"/>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158" s="1">
         <v>156</v>
       </c>
-      <c r="B158" t="n">
+      <c r="B158">
         <v>-33.58750054295952</v>
       </c>
-      <c r="C158" t="n">
+      <c r="C158">
         <v>-0.8086421769823861</v>
       </c>
-      <c r="D158" t="n">
+      <c r="D158">
         <v>-16.74877885226699</v>
       </c>
-      <c r="E158" t="inlineStr"/>
-      <c r="F158" t="inlineStr"/>
-      <c r="G158" t="inlineStr"/>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
+    </row>
+    <row r="159" spans="1:4">
+      <c r="A159" s="1">
         <v>157</v>
       </c>
-      <c r="B159" t="n">
+      <c r="B159">
         <v>-33.78151182067313</v>
       </c>
-      <c r="C159" t="n">
+      <c r="C159">
         <v>-0.8796208854661799</v>
       </c>
-      <c r="D159" t="n">
+      <c r="D159">
         <v>-16.8893546811513</v>
       </c>
-      <c r="E159" t="inlineStr"/>
-      <c r="F159" t="inlineStr"/>
-      <c r="G159" t="inlineStr"/>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
+    </row>
+    <row r="160" spans="1:4">
+      <c r="A160" s="1">
         <v>158</v>
       </c>
-      <c r="B160" t="n">
+      <c r="B160">
         <v>-33.99857370965584</v>
       </c>
-      <c r="C160" t="n">
+      <c r="C160">
         <v>-0.9590326223642166</v>
       </c>
-      <c r="D160" t="n">
+      <c r="D160">
         <v>-17.04663241944846</v>
       </c>
-      <c r="E160" t="inlineStr"/>
-      <c r="F160" t="inlineStr"/>
-      <c r="G160" t="inlineStr"/>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161" s="1">
         <v>159</v>
       </c>
-      <c r="B161" t="n">
+      <c r="B161">
         <v>-34.23650980969281</v>
       </c>
-      <c r="C161" t="n">
+      <c r="C161">
         <v>-1.046081155219226</v>
       </c>
-      <c r="D161" t="n">
+      <c r="D161">
         <v>-17.21903510076873</v>
       </c>
-      <c r="E161" t="inlineStr"/>
-      <c r="F161" t="inlineStr"/>
-      <c r="G161" t="inlineStr"/>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
+    </row>
+    <row r="162" spans="1:4">
+      <c r="A162" s="1">
         <v>160</v>
       </c>
-      <c r="B162" t="n">
+      <c r="B162">
         <v>-34.49387834542544</v>
       </c>
-      <c r="C162" t="n">
+      <c r="C162">
         <v>-1.140239012875483</v>
       </c>
-      <c r="D162" t="n">
+      <c r="D162">
         <v>-17.40551804993399</v>
       </c>
-      <c r="E162" t="inlineStr"/>
-      <c r="F162" t="inlineStr"/>
-      <c r="G162" t="inlineStr"/>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
+    </row>
+    <row r="163" spans="1:4">
+      <c r="A163" s="1">
         <v>161</v>
       </c>
-      <c r="B163" t="n">
+      <c r="B163">
         <v>-34.76510460249481</v>
       </c>
-      <c r="C163" t="n">
+      <c r="C163">
         <v>-1.239466695206897</v>
       </c>
-      <c r="D163" t="n">
+      <c r="D163">
         <v>-17.60204196520349</v>
       </c>
-      <c r="E163" t="inlineStr"/>
-      <c r="F163" t="inlineStr"/>
-      <c r="G163" t="inlineStr"/>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
+    </row>
+    <row r="164" spans="1:4">
+      <c r="A164" s="1">
         <v>162</v>
       </c>
-      <c r="B164" t="n">
+      <c r="B164">
         <v>-35.04151615166364</v>
       </c>
-      <c r="C164" t="n">
+      <c r="C164">
         <v>-1.340591408168015</v>
       </c>
-      <c r="D164" t="n">
+      <c r="D164">
         <v>-17.80232301636466</v>
       </c>
-      <c r="E164" t="inlineStr"/>
-      <c r="F164" t="inlineStr"/>
-      <c r="G164" t="inlineStr"/>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
+    </row>
+    <row r="165" spans="1:4">
+      <c r="A165" s="1">
         <v>163</v>
       </c>
-      <c r="B165" t="n">
+      <c r="B165">
         <v>-35.31183564988654</v>
       </c>
-      <c r="C165" t="n">
+      <c r="C165">
         <v>-1.439487354259208</v>
       </c>
-      <c r="D165" t="n">
+      <c r="D165">
         <v>-17.99818991634132</v>
       </c>
-      <c r="E165" t="inlineStr"/>
-      <c r="F165" t="inlineStr"/>
-      <c r="G165" t="inlineStr"/>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
+    </row>
+    <row r="166" spans="1:4">
+      <c r="A166" s="1">
         <v>164</v>
       </c>
-      <c r="B166" t="n">
+      <c r="B166">
         <v>-35.56906904491456</v>
       </c>
-      <c r="C166" t="n">
+      <c r="C166">
         <v>-1.533595770909825</v>
       </c>
-      <c r="D166" t="n">
+      <c r="D166">
         <v>-18.18457494585578</v>
       </c>
-      <c r="E166" t="inlineStr"/>
-      <c r="F166" t="inlineStr"/>
-      <c r="G166" t="inlineStr"/>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
+    </row>
+    <row r="167" spans="1:4">
+      <c r="A167" s="1">
         <v>165</v>
       </c>
-      <c r="B167" t="n">
+      <c r="B167">
         <v>-35.80565664783654</v>
       </c>
-      <c r="C167" t="n">
+      <c r="C167">
         <v>-1.620150958301904</v>
       </c>
-      <c r="D167" t="n">
+      <c r="D167">
         <v>-18.3560005391329</v>
       </c>
-      <c r="E167" t="inlineStr"/>
-      <c r="F167" t="inlineStr"/>
-      <c r="G167" t="inlineStr"/>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
+    </row>
+    <row r="168" spans="1:4">
+      <c r="A168" s="1">
         <v>166</v>
       </c>
-      <c r="B168" t="n">
+      <c r="B168">
         <v>-36.01500389876385</v>
       </c>
-      <c r="C168" t="n">
+      <c r="C168">
         <v>-1.696740307491118</v>
       </c>
-      <c r="D168" t="n">
+      <c r="D168">
         <v>-18.50768843929302</v>
       </c>
-      <c r="E168" t="inlineStr"/>
-      <c r="F168" t="inlineStr"/>
-      <c r="G168" t="inlineStr"/>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
+    </row>
+    <row r="169" spans="1:4">
+      <c r="A169" s="1">
         <v>167</v>
       </c>
-      <c r="B169" t="n">
+      <c r="B169">
         <v>-36.19247712588745</v>
       </c>
-      <c r="C169" t="n">
+      <c r="C169">
         <v>-1.761668597228374</v>
       </c>
-      <c r="D169" t="n">
+      <c r="D169">
         <v>-18.63628120102155</v>
       </c>
-      <c r="E169" t="inlineStr"/>
-      <c r="F169" t="inlineStr"/>
-      <c r="G169" t="inlineStr"/>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
+    </row>
+    <row r="170" spans="1:4">
+      <c r="A170" s="1">
         <v>168</v>
       </c>
-      <c r="B170" t="n">
+      <c r="B170">
         <v>-36.33789412626464</v>
       </c>
-      <c r="C170" t="n">
+      <c r="C170">
         <v>-1.814869168865229</v>
       </c>
-      <c r="D170" t="n">
+      <c r="D170">
         <v>-18.74164680452049</v>
       </c>
-      <c r="E170" t="inlineStr"/>
-      <c r="F170" t="inlineStr"/>
-      <c r="G170" t="inlineStr"/>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
+    </row>
+    <row r="171" spans="1:4">
+      <c r="A171" s="1">
         <v>169</v>
       </c>
-      <c r="B171" t="n">
+      <c r="B171">
         <v>-36.45319595802466</v>
       </c>
-      <c r="C171" t="n">
+      <c r="C171">
         <v>-1.857052155342036</v>
       </c>
-      <c r="D171" t="n">
+      <c r="D171">
         <v>-18.82519169305768</v>
       </c>
-      <c r="E171" t="inlineStr"/>
-      <c r="F171" t="inlineStr"/>
-      <c r="G171" t="inlineStr"/>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
+    </row>
+    <row r="172" spans="1:4">
+      <c r="A172" s="1">
         <v>170</v>
       </c>
-      <c r="B172" t="n">
+      <c r="B172">
         <v>-36.54202307598568</v>
       </c>
-      <c r="C172" t="n">
+      <c r="C172">
         <v>-1.889549411097025</v>
       </c>
-      <c r="D172" t="n">
+      <c r="D172">
         <v>-18.88955365119709</v>
       </c>
-      <c r="E172" t="inlineStr"/>
-      <c r="F172" t="inlineStr"/>
-      <c r="G172" t="inlineStr"/>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
+    </row>
+    <row r="173" spans="1:4">
+      <c r="A173" s="1">
         <v>171</v>
       </c>
-      <c r="B173" t="n">
+      <c r="B173">
         <v>-36.6120613838121</v>
       </c>
-      <c r="C173" t="n">
+      <c r="C173">
         <v>-1.915172811409081</v>
       </c>
-      <c r="D173" t="n">
+      <c r="D173">
         <v>-18.94030169683847</v>
       </c>
-      <c r="E173" t="inlineStr"/>
-      <c r="F173" t="inlineStr"/>
-      <c r="G173" t="inlineStr"/>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
+    </row>
+    <row r="174" spans="1:4">
+      <c r="A174" s="1">
         <v>172</v>
       </c>
-      <c r="B174" t="n">
+      <c r="B174">
         <v>-36.67378711838245</v>
       </c>
-      <c r="C174" t="n">
+      <c r="C174">
         <v>-1.937755070397573</v>
       </c>
-      <c r="D174" t="n">
+      <c r="D174">
         <v>-18.98502665511398</v>
       </c>
-      <c r="E174" t="inlineStr"/>
-      <c r="F174" t="inlineStr"/>
-      <c r="G174" t="inlineStr"/>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
+    </row>
+    <row r="175" spans="1:4">
+      <c r="A175" s="1">
         <v>173</v>
       </c>
-      <c r="B175" t="n">
+      <c r="B175">
         <v>-36.74026130653246</v>
       </c>
-      <c r="C175" t="n">
+      <c r="C175">
         <v>-1.962074543358115</v>
       </c>
-      <c r="D175" t="n">
+      <c r="D175">
         <v>-19.03319222676901</v>
       </c>
-      <c r="E175" t="inlineStr"/>
-      <c r="F175" t="inlineStr"/>
-      <c r="G175" t="inlineStr"/>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
+    </row>
+    <row r="176" spans="1:4">
+      <c r="A176" s="1">
         <v>174</v>
       </c>
-      <c r="B176" t="n">
+      <c r="B176">
         <v>-36.82353948998293</v>
       </c>
-      <c r="C176" t="n">
+      <c r="C176">
         <v>-1.992541730502343</v>
       </c>
-      <c r="D176" t="n">
+      <c r="D176">
         <v>-19.09353356261554</v>
       </c>
-      <c r="E176" t="inlineStr"/>
-      <c r="F176" t="inlineStr"/>
-      <c r="G176" t="inlineStr"/>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
+    </row>
+    <row r="177" spans="1:4">
+      <c r="A177" s="1">
         <v>175</v>
       </c>
-      <c r="B177" t="n">
+      <c r="B177">
         <v>-36.94013474791787</v>
       </c>
-      <c r="C177" t="n">
+      <c r="C177">
         <v>-2.035197914828766</v>
       </c>
-      <c r="D177" t="n">
+      <c r="D177">
         <v>-19.178015636139</v>
       </c>
-      <c r="E177" t="inlineStr"/>
-      <c r="F177" t="inlineStr"/>
-      <c r="G177" t="inlineStr"/>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
+    </row>
+    <row r="178" spans="1:4">
+      <c r="A178" s="1">
         <v>176</v>
       </c>
-      <c r="B178" t="n">
+      <c r="B178">
         <v>-37.10569395413405</v>
       </c>
-      <c r="C178" t="n">
+      <c r="C178">
         <v>-2.095767479512388</v>
       </c>
-      <c r="D178" t="n">
+      <c r="D178">
         <v>-19.29797578957722</v>
       </c>
-      <c r="E178" t="inlineStr"/>
-      <c r="F178" t="inlineStr"/>
-      <c r="G178" t="inlineStr"/>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
+    </row>
+    <row r="179" spans="1:4">
+      <c r="A179" s="1">
         <v>177</v>
       </c>
-      <c r="B179" t="n">
+      <c r="B179">
         <v>-37.33402485656472</v>
       </c>
-      <c r="C179" t="n">
+      <c r="C179">
         <v>-2.179301966540465</v>
       </c>
-      <c r="D179" t="n">
+      <c r="D179">
         <v>-19.46341877952791</v>
       </c>
-      <c r="E179" t="inlineStr"/>
-      <c r="F179" t="inlineStr"/>
-      <c r="G179" t="inlineStr"/>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
+    </row>
+    <row r="180" spans="1:4">
+      <c r="A180" s="1">
         <v>178</v>
       </c>
-      <c r="B180" t="n">
+      <c r="B180">
         <v>-37.6329426679856</v>
       </c>
-      <c r="C180" t="n">
+      <c r="C180">
         <v>-2.288660558718676</v>
       </c>
-      <c r="D180" t="n">
+      <c r="D180">
         <v>-19.68000731811175</v>
       </c>
-      <c r="E180" t="inlineStr"/>
-      <c r="F180" t="inlineStr"/>
-      <c r="G180" t="inlineStr"/>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
+    </row>
+    <row r="181" spans="1:4">
+      <c r="A181" s="1">
         <v>179</v>
       </c>
-      <c r="B181" t="n">
+      <c r="B181">
         <v>-38.01340944454162</v>
       </c>
-      <c r="C181" t="n">
+      <c r="C181">
         <v>-2.427853706350033</v>
       </c>
-      <c r="D181" t="n">
+      <c r="D181">
         <v>-19.9556842432246</v>
       </c>
-      <c r="E181" t="inlineStr"/>
-      <c r="F181" t="inlineStr"/>
-      <c r="G181" t="inlineStr"/>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
+    </row>
+    <row r="182" spans="1:4">
+      <c r="A182" s="1">
         <v>180</v>
       </c>
-      <c r="B182" t="n">
+      <c r="B182">
         <v>-38.47943933937596</v>
       </c>
-      <c r="C182" t="n">
+      <c r="C182">
         <v>-2.598349980793464</v>
       </c>
-      <c r="D182" t="n">
+      <c r="D182">
         <v>-20.29335811210099</v>
       </c>
-      <c r="E182" t="inlineStr"/>
-      <c r="F182" t="inlineStr"/>
-      <c r="G182" t="inlineStr"/>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
+    </row>
+    <row r="183" spans="1:4">
+      <c r="A183" s="1">
         <v>181</v>
       </c>
-      <c r="B183" t="n">
+      <c r="B183">
         <v>-39.0301845361105</v>
       </c>
-      <c r="C183" t="n">
+      <c r="C183">
         <v>-2.799839209814341</v>
       </c>
-      <c r="D183" t="n">
+      <c r="D183">
         <v>-20.69241461771968</v>
       </c>
-      <c r="E183" t="inlineStr"/>
-      <c r="F183" t="inlineStr"/>
-      <c r="G183" t="inlineStr"/>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
+    </row>
+    <row r="184" spans="1:4">
+      <c r="A184" s="1">
         <v>182</v>
       </c>
-      <c r="B184" t="n">
+      <c r="B184">
         <v>-39.65968992081015</v>
       </c>
-      <c r="C184" t="n">
+      <c r="C184">
         <v>-3.030142724724084</v>
       </c>
-      <c r="D184" t="n">
+      <c r="D184">
         <v>-21.14853883010654</v>
       </c>
-      <c r="E184" t="inlineStr"/>
-      <c r="F184" t="inlineStr"/>
-      <c r="G184" t="inlineStr"/>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
+    </row>
+    <row r="185" spans="1:4">
+      <c r="A185" s="1">
         <v>183</v>
       </c>
-      <c r="B185" t="n">
+      <c r="B185">
         <v>-40.36352559414591</v>
       </c>
-      <c r="C185" t="n">
+      <c r="C185">
         <v>-3.287639854101989</v>
       </c>
-      <c r="D185" t="n">
+      <c r="D185">
         <v>-21.65852095250447</v>
       </c>
-      <c r="E185" t="inlineStr"/>
-      <c r="F185" t="inlineStr"/>
-      <c r="G185" t="inlineStr"/>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
+    </row>
+    <row r="186" spans="1:4">
+      <c r="A186" s="1">
         <v>184</v>
       </c>
-      <c r="B186" t="n">
+      <c r="B186">
         <v>-41.13229005457004</v>
       </c>
-      <c r="C186" t="n">
+      <c r="C186">
         <v>-3.568891073990832</v>
       </c>
-      <c r="D186" t="n">
+      <c r="D186">
         <v>-22.21554888672821</v>
       </c>
-      <c r="E186" t="inlineStr"/>
-      <c r="F186" t="inlineStr"/>
-      <c r="G186" t="inlineStr"/>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
+    </row>
+    <row r="187" spans="1:4">
+      <c r="A187" s="1">
         <v>185</v>
       </c>
-      <c r="B187" t="n">
+      <c r="B187">
         <v>-41.94842339461247</v>
       </c>
-      <c r="C187" t="n">
+      <c r="C187">
         <v>-3.867472120976602</v>
       </c>
-      <c r="D187" t="n">
+      <c r="D187">
         <v>-22.80689915310779</v>
       </c>
-      <c r="E187" t="inlineStr"/>
-      <c r="F187" t="inlineStr"/>
-      <c r="G187" t="inlineStr"/>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
+    </row>
+    <row r="188" spans="1:4">
+      <c r="A188" s="1">
         <v>186</v>
       </c>
-      <c r="B188" t="n">
+      <c r="B188">
         <v>-42.79422925771218</v>
       </c>
-      <c r="C188" t="n">
+      <c r="C188">
         <v>-4.176908811968648</v>
       </c>
-      <c r="D188" t="n">
+      <c r="D188">
         <v>-23.41974940429764</v>
       </c>
-      <c r="E188" t="inlineStr"/>
-      <c r="F188" t="inlineStr"/>
-      <c r="G188" t="inlineStr"/>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
+    </row>
+    <row r="189" spans="1:4">
+      <c r="A189" s="1">
         <v>187</v>
       </c>
-      <c r="B189" t="n">
+      <c r="B189">
         <v>-43.65216360327062</v>
       </c>
-      <c r="C189" t="n">
+      <c r="C189">
         <v>-4.490782688421938</v>
       </c>
-      <c r="D189" t="n">
+      <c r="D189">
         <v>-24.041387657375</v>
       </c>
-      <c r="E189" t="inlineStr"/>
-      <c r="F189" t="inlineStr"/>
-      <c r="G189" t="inlineStr"/>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
+    </row>
+    <row r="190" spans="1:4">
+      <c r="A190" s="1">
         <v>188</v>
       </c>
-      <c r="B190" t="n">
+      <c r="B190">
         <v>-44.5058688870938</v>
       </c>
-      <c r="C190" t="n">
+      <c r="C190">
         <v>-4.803109369559555</v>
       </c>
-      <c r="D190" t="n">
+      <c r="D190">
         <v>-24.65996163570585</v>
       </c>
-      <c r="E190" t="inlineStr"/>
-      <c r="F190" t="inlineStr"/>
-      <c r="G190" t="inlineStr"/>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
+    </row>
+    <row r="191" spans="1:4">
+      <c r="A191" s="1">
         <v>189</v>
       </c>
-      <c r="B191" t="n">
+      <c r="B191">
         <v>-45.33803095086041</v>
       </c>
-      <c r="C191" t="n">
+      <c r="C191">
         <v>-5.107554498891437</v>
       </c>
-      <c r="D191" t="n">
+      <c r="D191">
         <v>-25.26292592344562</v>
       </c>
-      <c r="E191" t="inlineStr"/>
-      <c r="F191" t="inlineStr"/>
-      <c r="G191" t="inlineStr"/>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
+    </row>
+    <row r="192" spans="1:4">
+      <c r="A192" s="1">
         <v>190</v>
       </c>
-      <c r="B192" t="n">
+      <c r="B192">
         <v>-46.1453626095704</v>
       </c>
-      <c r="C192" t="n">
+      <c r="C192">
         <v>-5.402915465164243</v>
       </c>
-      <c r="D192" t="n">
+      <c r="D192">
         <v>-25.84789870670429</v>
       </c>
-      <c r="E192" t="inlineStr"/>
-      <c r="F192" t="inlineStr"/>
-      <c r="G192" t="inlineStr"/>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
+    </row>
+    <row r="193" spans="1:4">
+      <c r="A193" s="1">
         <v>191</v>
       </c>
-      <c r="B193" t="n">
+      <c r="B193">
         <v>-46.92690722963793</v>
       </c>
-      <c r="C193" t="n">
+      <c r="C193">
         <v>-5.688842285545981</v>
       </c>
-      <c r="D193" t="n">
+      <c r="D193">
         <v>-26.41418683217216</v>
       </c>
-      <c r="E193" t="inlineStr"/>
-      <c r="F193" t="inlineStr"/>
-      <c r="G193" t="inlineStr"/>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
+    </row>
+    <row r="194" spans="1:4">
+      <c r="A194" s="1">
         <v>192</v>
       </c>
-      <c r="B194" t="n">
+      <c r="B194">
         <v>-47.68471838021338</v>
       </c>
-      <c r="C194" t="n">
+      <c r="C194">
         <v>-5.966086254949984</v>
       </c>
-      <c r="D194" t="n">
+      <c r="D194">
         <v>-26.96327826585247</v>
       </c>
-      <c r="E194" t="inlineStr"/>
-      <c r="F194" t="inlineStr"/>
-      <c r="G194" t="inlineStr"/>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
+    </row>
+    <row r="195" spans="1:4">
+      <c r="A195" s="1">
         <v>193</v>
       </c>
-      <c r="B195" t="n">
+      <c r="B195">
         <v>-48.4163016853837</v>
       </c>
-      <c r="C195" t="n">
+      <c r="C195">
         <v>-6.233734810030102</v>
       </c>
-      <c r="D195" t="n">
+      <c r="D195">
         <v>-27.49336564393806</v>
       </c>
-      <c r="E195" t="inlineStr"/>
-      <c r="F195" t="inlineStr"/>
-      <c r="G195" t="inlineStr"/>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
+    </row>
+    <row r="196" spans="1:4">
+      <c r="A196" s="1">
         <v>194</v>
       </c>
-      <c r="B196" t="n">
+      <c r="B196">
         <v>-49.13090967845619</v>
       </c>
-      <c r="C196" t="n">
+      <c r="C196">
         <v>-6.49517297495655</v>
       </c>
-      <c r="D196" t="n">
+      <c r="D196">
         <v>-28.01115312586892</v>
       </c>
-      <c r="E196" t="inlineStr"/>
-      <c r="F196" t="inlineStr"/>
-      <c r="G196" t="inlineStr"/>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
+    </row>
+    <row r="197" spans="1:4">
+      <c r="A197" s="1">
         <v>195</v>
       </c>
-      <c r="B197" t="n">
+      <c r="B197">
         <v>-49.83628258978569</v>
       </c>
-      <c r="C197" t="n">
+      <c r="C197">
         <v>-6.753232500339025</v>
       </c>
-      <c r="D197" t="n">
+      <c r="D197">
         <v>-28.52224909333662</v>
       </c>
-      <c r="E197" t="inlineStr"/>
-      <c r="F197" t="inlineStr"/>
-      <c r="G197" t="inlineStr"/>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
+    </row>
+    <row r="198" spans="1:4">
+      <c r="A198" s="1">
         <v>196</v>
       </c>
-      <c r="B198" t="n">
+      <c r="B198">
         <v>-50.52619840365443</v>
       </c>
-      <c r="C198" t="n">
+      <c r="C198">
         <v>-7.005637071908493</v>
       </c>
-      <c r="D198" t="n">
+      <c r="D198">
         <v>-29.0221452258602</v>
       </c>
-      <c r="E198" t="inlineStr"/>
-      <c r="F198" t="inlineStr"/>
-      <c r="G198" t="inlineStr"/>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
+    </row>
+    <row r="199" spans="1:4">
+      <c r="A199" s="1">
         <v>197</v>
       </c>
-      <c r="B199" t="n">
+      <c r="B199">
         <v>-51.21133430041829</v>
       </c>
-      <c r="C199" t="n">
+      <c r="C199">
         <v>-7.256292918626692</v>
       </c>
-      <c r="D199" t="n">
+      <c r="D199">
         <v>-29.51857794730306</v>
       </c>
-      <c r="E199" t="inlineStr"/>
-      <c r="F199" t="inlineStr"/>
-      <c r="G199" t="inlineStr"/>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
+    </row>
+    <row r="200" spans="1:4">
+      <c r="A200" s="1">
         <v>198</v>
       </c>
-      <c r="B200" t="n">
+      <c r="B200">
         <v>-51.8763102894116</v>
       </c>
-      <c r="C200" t="n">
+      <c r="C200">
         <v>-7.499573296075431</v>
       </c>
-      <c r="D200" t="n">
+      <c r="D200">
         <v>-30.00040329241979</v>
       </c>
-      <c r="E200" t="inlineStr"/>
-      <c r="F200" t="inlineStr"/>
-      <c r="G200" t="inlineStr"/>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
+    </row>
+    <row r="201" spans="1:4">
+      <c r="A201" s="1">
         <v>199</v>
       </c>
-      <c r="B201" t="n">
+      <c r="B201">
         <v>-52.55455363329396</v>
       </c>
-      <c r="C201" t="n">
+      <c r="C201">
         <v>-7.74770751360047</v>
       </c>
-      <c r="D201" t="n">
+      <c r="D201">
         <v>-30.4918418385453</v>
       </c>
-      <c r="E201" t="inlineStr"/>
-      <c r="F201" t="inlineStr"/>
-      <c r="G201" t="inlineStr"/>
-    </row>
-    <row r="202">
-      <c r="A202" s="1" t="n">
+    </row>
+    <row r="202" spans="1:4">
+      <c r="A202" s="1">
         <v>200</v>
       </c>
-      <c r="B202" t="n">
+      <c r="B202">
         <v>-53.20001985273644</v>
       </c>
-      <c r="C202" t="n">
+      <c r="C202">
         <v>-7.983850273783585</v>
       </c>
-      <c r="D202" t="n">
+      <c r="D202">
         <v>-30.95953088159614</v>
       </c>
-      <c r="E202" t="inlineStr"/>
-      <c r="F202" t="inlineStr"/>
-      <c r="G202" t="inlineStr"/>
-    </row>
-    <row r="203">
-      <c r="A203" s="1" t="n">
+    </row>
+    <row r="203" spans="1:4">
+      <c r="A203" s="1">
         <v>201</v>
       </c>
-      <c r="B203" t="n">
+      <c r="B203">
         <v>-53.89708535530143</v>
       </c>
-      <c r="C203" t="n">
+      <c r="C203">
         <v>-8.238870547263277</v>
       </c>
-      <c r="D203" t="n">
+      <c r="D203">
         <v>-31.4646075037623</v>
       </c>
-      <c r="E203" t="inlineStr"/>
-      <c r="F203" t="inlineStr"/>
-      <c r="G203" t="inlineStr"/>
-    </row>
-    <row r="204">
-      <c r="A204" s="1" t="n">
+    </row>
+    <row r="204" spans="1:4">
+      <c r="A204" s="1">
         <v>202</v>
       </c>
-      <c r="B204" t="n">
+      <c r="B204">
         <v>-7.184824498972011</v>
       </c>
-      <c r="C204" t="n">
+      <c r="C204">
         <v>8.85073365004863</v>
       </c>
-      <c r="D204" t="n">
+      <c r="D204">
         <v>2.381954749345109</v>
       </c>
-      <c r="E204" t="inlineStr"/>
-      <c r="F204" t="inlineStr"/>
-      <c r="G204" t="inlineStr"/>
-    </row>
-    <row r="205">
-      <c r="A205" s="1" t="n">
+    </row>
+    <row r="205" spans="1:4">
+      <c r="A205" s="1">
         <v>203</v>
       </c>
-      <c r="B205" t="n">
+      <c r="B205">
         <v>-6.563586099601815</v>
       </c>
-      <c r="C205" t="n">
+      <c r="C205">
         <v>9.078012701903164</v>
       </c>
-      <c r="D205" t="n">
+      <c r="D205">
         <v>2.83208890626325</v>
       </c>
-      <c r="E205" t="inlineStr"/>
-      <c r="F205" t="inlineStr"/>
-      <c r="G205" t="inlineStr"/>
-    </row>
-    <row r="206">
-      <c r="A206" s="1" t="n">
+    </row>
+    <row r="206" spans="1:4">
+      <c r="A206" s="1">
         <v>204</v>
       </c>
-      <c r="B206" t="n">
+      <c r="B206">
         <v>-6.066343690408522</v>
       </c>
-      <c r="C206" t="n">
+      <c r="C206">
         <v>9.259928023650639</v>
       </c>
-      <c r="D206" t="n">
+      <c r="D206">
         <v>3.192378599999311</v>
       </c>
-      <c r="E206" t="inlineStr"/>
-      <c r="F206" t="inlineStr"/>
-      <c r="G206" t="inlineStr"/>
-    </row>
-    <row r="207">
-      <c r="A207" s="1" t="n">
+    </row>
+    <row r="207" spans="1:4">
+      <c r="A207" s="1">
         <v>205</v>
       </c>
-      <c r="B207" t="n">
+      <c r="B207">
         <v>-5.762967952394719</v>
       </c>
-      <c r="C207" t="n">
+      <c r="C207">
         <v>9.370917540978205</v>
       </c>
-      <c r="D207" t="n">
+      <c r="D207">
         <v>3.412197243210524</v>
       </c>
-      <c r="E207" t="inlineStr"/>
-      <c r="F207" t="inlineStr"/>
-      <c r="G207" t="inlineStr"/>
-    </row>
-    <row r="208">
-      <c r="A208" s="1" t="n">
+    </row>
+    <row r="208" spans="1:4">
+      <c r="A208" s="1">
         <v>206</v>
       </c>
-      <c r="B208" t="n">
+      <c r="B208">
         <v>-5.599574665247925</v>
       </c>
-      <c r="C208" t="n">
+      <c r="C208">
         <v>9.430694707714464</v>
       </c>
-      <c r="D208" t="n">
+      <c r="D208">
         <v>3.530588024640759</v>
       </c>
-      <c r="E208" t="inlineStr"/>
-      <c r="F208" t="inlineStr"/>
-      <c r="G208" t="inlineStr"/>
-    </row>
-    <row r="209">
-      <c r="A209" s="1" t="n">
+    </row>
+    <row r="209" spans="1:4">
+      <c r="A209" s="1">
         <v>207</v>
       </c>
-      <c r="B209" t="n">
+      <c r="B209">
         <v>-5.5540774904054</v>
       </c>
-      <c r="C209" t="n">
+      <c r="C209">
         <v>9.447339774681915</v>
       </c>
-      <c r="D209" t="n">
+      <c r="D209">
         <v>3.563554165273179</v>
       </c>
-      <c r="E209" t="inlineStr"/>
-      <c r="F209" t="inlineStr"/>
-      <c r="G209" t="inlineStr"/>
-    </row>
-    <row r="210">
-      <c r="A210" s="1" t="n">
+    </row>
+    <row r="210" spans="1:4">
+      <c r="A210" s="1">
         <v>208</v>
       </c>
-      <c r="B210" t="n">
+      <c r="B210">
         <v>-5.589389481532384</v>
       </c>
-      <c r="C210" t="n">
+      <c r="C210">
         <v>9.434420940510407</v>
       </c>
-      <c r="D210" t="n">
+      <c r="D210">
         <v>3.537967959766307</v>
       </c>
-      <c r="E210" t="inlineStr"/>
-      <c r="F210" t="inlineStr"/>
-      <c r="G210" t="inlineStr"/>
-    </row>
-    <row r="211">
-      <c r="A211" s="1" t="n">
+    </row>
+    <row r="211" spans="1:4">
+      <c r="A211" s="1">
         <v>209</v>
       </c>
-      <c r="B211" t="n">
+      <c r="B211">
         <v>-5.674763357238608</v>
       </c>
-      <c r="C211" t="n">
+      <c r="C211">
         <v>9.403187047783671</v>
       </c>
-      <c r="D211" t="n">
+      <c r="D211">
         <v>3.476108136544151</v>
       </c>
-      <c r="E211" t="inlineStr"/>
-      <c r="F211" t="inlineStr"/>
-      <c r="G211" t="inlineStr"/>
-    </row>
-    <row r="212">
-      <c r="A212" s="1" t="n">
+    </row>
+    <row r="212" spans="1:4">
+      <c r="A212" s="1">
         <v>210</v>
       </c>
-      <c r="B212" t="n">
+      <c r="B212">
         <v>-5.771853294622368</v>
       </c>
-      <c r="C212" t="n">
+      <c r="C212">
         <v>9.367666853063628</v>
       </c>
-      <c r="D212" t="n">
+      <c r="D212">
         <v>3.40575914145019</v>
       </c>
-      <c r="E212" t="inlineStr"/>
-      <c r="F212" t="inlineStr"/>
-      <c r="G212" t="inlineStr"/>
-    </row>
-    <row r="213">
-      <c r="A213" s="1" t="n">
+    </row>
+    <row r="213" spans="1:4">
+      <c r="A213" s="1">
         <v>211</v>
       </c>
-      <c r="B213" t="n">
+      <c r="B213">
         <v>-5.848964697318022</v>
       </c>
-      <c r="C213" t="n">
+      <c r="C213">
         <v>9.339455772567623</v>
       </c>
-      <c r="D213" t="n">
+      <c r="D213">
         <v>3.349886104180805</v>
       </c>
-      <c r="E213" t="inlineStr"/>
-      <c r="F213" t="inlineStr"/>
-      <c r="G213" t="inlineStr"/>
-    </row>
-    <row r="214">
-      <c r="A214" s="1" t="n">
+    </row>
+    <row r="214" spans="1:4">
+      <c r="A214" s="1">
         <v>212</v>
       </c>
-      <c r="B214" t="n">
+      <c r="B214">
         <v>-5.875361980209409</v>
       </c>
-      <c r="C214" t="n">
+      <c r="C214">
         <v>9.329798369816647</v>
       </c>
-      <c r="D214" t="n">
+      <c r="D214">
         <v>3.330759278325723</v>
       </c>
-      <c r="E214" t="inlineStr"/>
-      <c r="F214" t="inlineStr"/>
-      <c r="G214" t="inlineStr"/>
-    </row>
-    <row r="215">
-      <c r="A215" s="1" t="n">
+    </row>
+    <row r="215" spans="1:4">
+      <c r="A215" s="1">
         <v>213</v>
       </c>
-      <c r="B215" t="n">
+      <c r="B215">
         <v>-5.832696857029893</v>
       </c>
-      <c r="C215" t="n">
+      <c r="C215">
         <v>9.345407335317375</v>
       </c>
-      <c r="D215" t="n">
+      <c r="D215">
         <v>3.361673383557612</v>
       </c>
-      <c r="E215" t="inlineStr"/>
-      <c r="F215" t="inlineStr"/>
-      <c r="G215" t="inlineStr"/>
-    </row>
-    <row r="216">
-      <c r="A216" s="1" t="n">
+    </row>
+    <row r="216" spans="1:4">
+      <c r="A216" s="1">
         <v>214</v>
       </c>
-      <c r="B216" t="n">
+      <c r="B216">
         <v>-5.714714521815928</v>
       </c>
-      <c r="C216" t="n">
+      <c r="C216">
         <v>9.388570979596606</v>
       </c>
-      <c r="D216" t="n">
+      <c r="D216">
         <v>3.447160499367922</v>
       </c>
-      <c r="E216" t="inlineStr"/>
-      <c r="F216" t="inlineStr"/>
-      <c r="G216" t="inlineStr"/>
-    </row>
-    <row r="217">
-      <c r="A217" s="1" t="n">
+    </row>
+    <row r="217" spans="1:4">
+      <c r="A217" s="1">
         <v>215</v>
       </c>
-      <c r="B217" t="n">
+      <c r="B217">
         <v>-5.53373192972288</v>
       </c>
-      <c r="C217" t="n">
+      <c r="C217">
         <v>9.454783164765432</v>
       </c>
-      <c r="D217" t="n">
+      <c r="D217">
         <v>3.578296061160712</v>
       </c>
-      <c r="E217" t="inlineStr"/>
-      <c r="F217" t="inlineStr"/>
-      <c r="G217" t="inlineStr"/>
-    </row>
-    <row r="218">
-      <c r="A218" s="1" t="n">
+    </row>
+    <row r="218" spans="1:4">
+      <c r="A218" s="1">
         <v>216</v>
       </c>
-      <c r="B218" t="n">
+      <c r="B218">
         <v>-5.317491872115078</v>
       </c>
-      <c r="C218" t="n">
+      <c r="C218">
         <v>9.533894235999753</v>
       </c>
-      <c r="D218" t="n">
+      <c r="D218">
         <v>3.734978320534725</v>
       </c>
-      <c r="E218" t="inlineStr"/>
-      <c r="F218" t="inlineStr"/>
-      <c r="G218" t="inlineStr"/>
-    </row>
-    <row r="219">
-      <c r="A219" s="1" t="n">
+    </row>
+    <row r="219" spans="1:4">
+      <c r="A219" s="1">
         <v>217</v>
       </c>
-      <c r="B219" t="n">
+      <c r="B219">
         <v>-5.107820570977585</v>
       </c>
-      <c r="C219" t="n">
+      <c r="C219">
         <v>9.610602138428106</v>
       </c>
-      <c r="D219" t="n">
+      <c r="D219">
         <v>3.886901019555161</v>
       </c>
-      <c r="E219" t="inlineStr"/>
-      <c r="F219" t="inlineStr"/>
-      <c r="G219" t="inlineStr"/>
-    </row>
-    <row r="220">
-      <c r="A220" s="1" t="n">
+    </row>
+    <row r="220" spans="1:4">
+      <c r="A220" s="1">
         <v>218</v>
       </c>
-      <c r="B220" t="n">
+      <c r="B220">
         <v>-4.950667572832394</v>
       </c>
-      <c r="C220" t="n">
+      <c r="C220">
         <v>9.668096305644342</v>
       </c>
-      <c r="D220" t="n">
+      <c r="D220">
         <v>4.000770240129676</v>
       </c>
-      <c r="E220" t="inlineStr"/>
-      <c r="F220" t="inlineStr"/>
-      <c r="G220" t="inlineStr"/>
-    </row>
-    <row r="221">
-      <c r="A221" s="1" t="n">
+    </row>
+    <row r="221" spans="1:4">
+      <c r="A221" s="1">
         <v>219</v>
       </c>
-      <c r="B221" t="n">
+      <c r="B221">
         <v>-4.888465192325081</v>
       </c>
-      <c r="C221" t="n">
+      <c r="C221">
         <v>9.690852944768919</v>
       </c>
-      <c r="D221" t="n">
+      <c r="D221">
         <v>4.045840564398662</v>
       </c>
-      <c r="E221" t="inlineStr"/>
-      <c r="F221" t="inlineStr"/>
-      <c r="G221" t="inlineStr"/>
-    </row>
-    <row r="222">
-      <c r="A222" s="1" t="n">
+    </row>
+    <row r="222" spans="1:4">
+      <c r="A222" s="1">
         <v>220</v>
       </c>
-      <c r="B222" t="n">
+      <c r="B222">
         <v>-4.94727679354113</v>
       </c>
-      <c r="C222" t="n">
+      <c r="C222">
         <v>9.669336816699595</v>
       </c>
-      <c r="D222" t="n">
+      <c r="D222">
         <v>4.003227115910562</v>
       </c>
-      <c r="E222" t="inlineStr"/>
-      <c r="F222" t="inlineStr"/>
-      <c r="G222" t="inlineStr"/>
-    </row>
-    <row r="223">
-      <c r="A223" s="1" t="n">
+    </row>
+    <row r="223" spans="1:4">
+      <c r="A223" s="1">
         <v>221</v>
       </c>
-      <c r="B223" t="n">
+      <c r="B223">
         <v>-5.131112494200027</v>
       </c>
-      <c r="C223" t="n">
+      <c r="C223">
         <v>9.602080826430599</v>
       </c>
-      <c r="D223" t="n">
+      <c r="D223">
         <v>3.870024261400216</v>
       </c>
-      <c r="E223" t="inlineStr"/>
-      <c r="F223" t="inlineStr"/>
-      <c r="G223" t="inlineStr"/>
-    </row>
-    <row r="224">
-      <c r="A224" s="1" t="n">
+    </row>
+    <row r="224" spans="1:4">
+      <c r="A224" s="1">
         <v>222</v>
       </c>
-      <c r="B224" t="n">
+      <c r="B224">
         <v>-5.420948072328132</v>
       </c>
-      <c r="C224" t="n">
+      <c r="C224">
         <v>9.496044954440961</v>
       </c>
-      <c r="D224" t="n">
+      <c r="D224">
         <v>3.660016487029152</v>
       </c>
-      <c r="E224" t="inlineStr"/>
-      <c r="F224" t="inlineStr"/>
-      <c r="G224" t="inlineStr"/>
-    </row>
-    <row r="225">
-      <c r="A225" s="1" t="n">
+    </row>
+    <row r="225" spans="1:4">
+      <c r="A225" s="1">
         <v>223</v>
       </c>
-      <c r="B225" t="n">
+      <c r="B225">
         <v>-5.782073400384096</v>
       </c>
-      <c r="C225" t="n">
+      <c r="C225">
         <v>9.363927844094231</v>
       </c>
-      <c r="D225" t="n">
+      <c r="D225">
         <v>3.398353902663706</v>
       </c>
-      <c r="E225" t="inlineStr"/>
-      <c r="F225" t="inlineStr"/>
-      <c r="G225" t="inlineStr"/>
-    </row>
-    <row r="226">
-      <c r="A226" s="1" t="n">
+    </row>
+    <row r="226" spans="1:4">
+      <c r="A226" s="1">
         <v>224</v>
       </c>
-      <c r="B226" t="n">
+      <c r="B226">
         <v>-6.168010254697136</v>
       </c>
-      <c r="C226" t="n">
+      <c r="C226">
         <v>9.222733477466358</v>
       </c>
-      <c r="D226" t="n">
+      <c r="D226">
         <v>3.118713492933788</v>
       </c>
-      <c r="E226" t="inlineStr"/>
-      <c r="F226" t="inlineStr"/>
-      <c r="G226" t="inlineStr"/>
-    </row>
-    <row r="227">
-      <c r="A227" s="1" t="n">
+    </row>
+    <row r="227" spans="1:4">
+      <c r="A227" s="1">
         <v>225</v>
       </c>
-      <c r="B227" t="n">
+      <c r="B227">
         <v>-6.528853636113658</v>
       </c>
-      <c r="C227" t="n">
+      <c r="C227">
         <v>9.090719516836309</v>
       </c>
-      <c r="D227" t="n">
+      <c r="D227">
         <v>2.8572552002106</v>
       </c>
-      <c r="E227" t="inlineStr"/>
-      <c r="F227" t="inlineStr"/>
-      <c r="G227" t="inlineStr"/>
-    </row>
-    <row r="228">
-      <c r="A228" s="1" t="n">
+    </row>
+    <row r="228" spans="1:4">
+      <c r="A228" s="1">
         <v>226</v>
       </c>
-      <c r="B228" t="n">
+      <c r="B228">
         <v>-6.81987451378239</v>
       </c>
-      <c r="C228" t="n">
+      <c r="C228">
         <v>8.984250004949281</v>
       </c>
-      <c r="D228" t="n">
+      <c r="D228">
         <v>2.646388586769131</v>
       </c>
-      <c r="E228" t="inlineStr"/>
-      <c r="F228" t="inlineStr"/>
-      <c r="G228" t="inlineStr"/>
-    </row>
-    <row r="229">
-      <c r="A229" s="1" t="n">
+    </row>
+    <row r="229" spans="1:4">
+      <c r="A229" s="1">
         <v>227</v>
       </c>
-      <c r="B229" t="n">
+      <c r="B229">
         <v>-7.007787283454139</v>
       </c>
-      <c r="C229" t="n">
+      <c r="C229">
         <v>8.91550242565339</v>
       </c>
-      <c r="D229" t="n">
+      <c r="D229">
         <v>2.510231587723196</v>
       </c>
-      <c r="E229" t="inlineStr"/>
-      <c r="F229" t="inlineStr"/>
-      <c r="G229" t="inlineStr"/>
-    </row>
-    <row r="230">
-      <c r="A230" s="1" t="n">
+    </row>
+    <row r="230" spans="1:4">
+      <c r="A230" s="1">
         <v>228</v>
       </c>
-      <c r="B230" t="n">
+      <c r="B230">
         <v>-7.076415108384349</v>
       </c>
-      <c r="C230" t="n">
+      <c r="C230">
         <v>8.890395048200885</v>
       </c>
-      <c r="D230" t="n">
+      <c r="D230">
         <v>2.460505543506671</v>
       </c>
-      <c r="E230" t="inlineStr"/>
-      <c r="F230" t="inlineStr"/>
-      <c r="G230" t="inlineStr"/>
-    </row>
-    <row r="231">
-      <c r="A231" s="1" t="n">
+    </row>
+    <row r="231" spans="1:4">
+      <c r="A231" s="1">
         <v>229</v>
       </c>
-      <c r="B231" t="n">
+      <c r="B231">
         <v>-7.024450698882806</v>
       </c>
-      <c r="C231" t="n">
+      <c r="C231">
         <v>8.909406142385766</v>
       </c>
-      <c r="D231" t="n">
+      <c r="D231">
         <v>2.498157684270088</v>
       </c>
-      <c r="E231" t="inlineStr"/>
-      <c r="F231" t="inlineStr"/>
-      <c r="G231" t="inlineStr"/>
-    </row>
-    <row r="232">
-      <c r="A232" s="1" t="n">
+    </row>
+    <row r="232" spans="1:4">
+      <c r="A232" s="1">
         <v>230</v>
       </c>
-      <c r="B232" t="n">
+      <c r="B232">
         <v>-6.86839792625269</v>
       </c>
-      <c r="C232" t="n">
+      <c r="C232">
         <v>8.966497793897652</v>
       </c>
-      <c r="D232" t="n">
+      <c r="D232">
         <v>2.611229708333328</v>
       </c>
-      <c r="E232" t="inlineStr"/>
-      <c r="F232" t="inlineStr"/>
-      <c r="G232" t="inlineStr"/>
-    </row>
-    <row r="233">
-      <c r="A233" s="1" t="n">
+    </row>
+    <row r="233" spans="1:4">
+      <c r="A233" s="1">
         <v>231</v>
       </c>
-      <c r="B233" t="n">
+      <c r="B233">
         <v>-6.63754334820717</v>
       </c>
-      <c r="C233" t="n">
+      <c r="C233">
         <v>9.050955563519839</v>
       </c>
-      <c r="D233" t="n">
+      <c r="D233">
         <v>2.778501291938852</v>
       </c>
-      <c r="E233" t="inlineStr"/>
-      <c r="F233" t="inlineStr"/>
-      <c r="G233" t="inlineStr"/>
-    </row>
-    <row r="234">
-      <c r="A234" s="1" t="n">
+    </row>
+    <row r="234" spans="1:4">
+      <c r="A234" s="1">
         <v>232</v>
       </c>
-      <c r="B234" t="n">
+      <c r="B234">
         <v>-6.371115940333552</v>
       </c>
-      <c r="C234" t="n">
+      <c r="C234">
         <v>9.148427594725517</v>
       </c>
-      <c r="D234" t="n">
+      <c r="D234">
         <v>2.971548078397413</v>
       </c>
-      <c r="E234" t="inlineStr"/>
-      <c r="F234" t="inlineStr"/>
-      <c r="G234" t="inlineStr"/>
-    </row>
-    <row r="235">
-      <c r="A235" s="1" t="n">
+    </row>
+    <row r="235" spans="1:4">
+      <c r="A235" s="1">
         <v>233</v>
       </c>
-      <c r="B235" t="n">
+      <c r="B235">
         <v>-6.108769657601795</v>
       </c>
-      <c r="C235" t="n">
+      <c r="C235">
         <v>9.244406552976139</v>
       </c>
-      <c r="D235" t="n">
+      <c r="D235">
         <v>3.161637781348465</v>
       </c>
-      <c r="E235" t="inlineStr"/>
-      <c r="F235" t="inlineStr"/>
-      <c r="G235" t="inlineStr"/>
-    </row>
-    <row r="236">
-      <c r="A236" s="1" t="n">
+    </row>
+    <row r="236" spans="1:4">
+      <c r="A236" s="1">
         <v>234</v>
       </c>
-      <c r="B236" t="n">
+      <c r="B236">
         <v>-5.890426104970907</v>
       </c>
-      <c r="C236" t="n">
+      <c r="C236">
         <v>9.32428718442263</v>
       </c>
-      <c r="D236" t="n">
+      <c r="D236">
         <v>3.319844181792571</v>
       </c>
-      <c r="E236" t="inlineStr"/>
-      <c r="F236" t="inlineStr"/>
-      <c r="G236" t="inlineStr"/>
-    </row>
-    <row r="237">
-      <c r="A237" s="1" t="n">
+    </row>
+    <row r="237" spans="1:4">
+      <c r="A237" s="1">
         <v>235</v>
       </c>
-      <c r="B237" t="n">
+      <c r="B237">
         <v>-5.75328383345625</v>
       </c>
-      <c r="C237" t="n">
+      <c r="C237">
         <v>9.374460460045366</v>
       </c>
-      <c r="D237" t="n">
+      <c r="D237">
         <v>3.419214119048016</v>
       </c>
-      <c r="E237" t="inlineStr"/>
-      <c r="F237" t="inlineStr"/>
-      <c r="G237" t="inlineStr"/>
-    </row>
-    <row r="238">
-      <c r="A238" s="1" t="n">
+    </row>
+    <row r="238" spans="1:4">
+      <c r="A238" s="1">
         <v>236</v>
       </c>
-      <c r="B238" t="n">
+      <c r="B238">
         <v>-5.727738402038382</v>
       </c>
-      <c r="C238" t="n">
+      <c r="C238">
         <v>9.383806214328672</v>
       </c>
-      <c r="D238" t="n">
+      <c r="D238">
         <v>3.437723714150395</v>
       </c>
-      <c r="E238" t="inlineStr"/>
-      <c r="F238" t="inlineStr"/>
-      <c r="G238" t="inlineStr"/>
-    </row>
-    <row r="239">
-      <c r="A239" s="1" t="n">
+    </row>
+    <row r="239" spans="1:4">
+      <c r="A239" s="1">
         <v>237</v>
       </c>
-      <c r="B239" t="n">
+      <c r="B239">
         <v>-5.834142524349337</v>
       </c>
-      <c r="C239" t="n">
+      <c r="C239">
         <v>9.344878440294154</v>
       </c>
-      <c r="D239" t="n">
+      <c r="D239">
         <v>3.360625888359823</v>
       </c>
-      <c r="E239" t="inlineStr"/>
-      <c r="F239" t="inlineStr"/>
-      <c r="G239" t="inlineStr"/>
-    </row>
-    <row r="240">
-      <c r="A240" s="1" t="n">
+    </row>
+    <row r="240" spans="1:4">
+      <c r="A240" s="1">
         <v>238</v>
       </c>
-      <c r="B240" t="n">
+      <c r="B240">
         <v>-6.081104180864155</v>
       </c>
-      <c r="C240" t="n">
+      <c r="C240">
         <v>9.254527922370576</v>
       </c>
-      <c r="D240" t="n">
+      <c r="D240">
         <v>3.181683509461314</v>
       </c>
-      <c r="E240" t="inlineStr"/>
-      <c r="F240" t="inlineStr"/>
-      <c r="G240" t="inlineStr"/>
-    </row>
-    <row r="241">
-      <c r="A241" s="1" t="n">
+    </row>
+    <row r="241" spans="1:4">
+      <c r="A241" s="1">
         <v>239</v>
       </c>
-      <c r="B241" t="n">
+      <c r="B241">
         <v>-6.46511058595365</v>
       </c>
-      <c r="C241" t="n">
+      <c r="C241">
         <v>9.11403980743227</v>
       </c>
-      <c r="D241" t="n">
+      <c r="D241">
         <v>2.903441856045549</v>
       </c>
-      <c r="E241" t="inlineStr"/>
-      <c r="F241" t="inlineStr"/>
-      <c r="G241" t="inlineStr"/>
-    </row>
-    <row r="242">
-      <c r="A242" s="1" t="n">
+    </row>
+    <row r="242" spans="1:4">
+      <c r="A242" s="1">
         <v>240</v>
       </c>
-      <c r="B242" t="n">
+      <c r="B242">
         <v>-6.967012423388798</v>
       </c>
-      <c r="C242" t="n">
+      <c r="C242">
         <v>8.930419841486904</v>
       </c>
-      <c r="D242" t="n">
+      <c r="D242">
         <v>2.539776054513361</v>
       </c>
-      <c r="E242" t="inlineStr"/>
-      <c r="F242" t="inlineStr"/>
-      <c r="G242" t="inlineStr"/>
-    </row>
-    <row r="243">
-      <c r="A243" s="1" t="n">
+    </row>
+    <row r="243" spans="1:4">
+      <c r="A243" s="1">
         <v>241</v>
       </c>
-      <c r="B243" t="n">
+      <c r="B243">
         <v>-7.556487111420623</v>
       </c>
-      <c r="C243" t="n">
+      <c r="C243">
         <v>8.714761491449394</v>
       </c>
-      <c r="D243" t="n">
+      <c r="D243">
         <v>2.112657106311203</v>
       </c>
-      <c r="E243" t="inlineStr"/>
-      <c r="F243" t="inlineStr"/>
-      <c r="G243" t="inlineStr"/>
-    </row>
-    <row r="244">
-      <c r="A244" s="1" t="n">
+    </row>
+    <row r="244" spans="1:4">
+      <c r="A244" s="1">
         <v>242</v>
       </c>
-      <c r="B244" t="n">
+      <c r="B244">
         <v>-8.197434996315994</v>
       </c>
-      <c r="C244" t="n">
+      <c r="C244">
         <v>8.480271756566824</v>
       </c>
-      <c r="D244" t="n">
+      <c r="D244">
         <v>1.648241938014564</v>
       </c>
-      <c r="E244" t="inlineStr"/>
-      <c r="F244" t="inlineStr"/>
-      <c r="G244" t="inlineStr"/>
-    </row>
-    <row r="245">
-      <c r="A245" s="1" t="n">
+    </row>
+    <row r="245" spans="1:4">
+      <c r="A245" s="1">
         <v>243</v>
       </c>
-      <c r="B245" t="n">
+      <c r="B245">
         <v>-8.85400625263558</v>
       </c>
-      <c r="C245" t="n">
+      <c r="C245">
         <v>8.240066236813798</v>
       </c>
-      <c r="D245" t="n">
+      <c r="D245">
         <v>1.172506456724738</v>
       </c>
-      <c r="E245" t="inlineStr"/>
-      <c r="F245" t="inlineStr"/>
-      <c r="G245" t="inlineStr"/>
-    </row>
-    <row r="246">
-      <c r="A246" s="1" t="n">
+    </row>
+    <row r="246" spans="1:4">
+      <c r="A246" s="1">
         <v>244</v>
       </c>
-      <c r="B246" t="n">
+      <c r="B246">
         <v>-9.489396681020585</v>
       </c>
-      <c r="C246" t="n">
+      <c r="C246">
         <v>8.007609688301677</v>
       </c>
-      <c r="D246" t="n">
+      <c r="D246">
         <v>0.7121180855537104</v>
       </c>
-      <c r="E246" t="inlineStr"/>
-      <c r="F246" t="inlineStr"/>
-      <c r="G246" t="inlineStr"/>
-    </row>
-    <row r="247">
-      <c r="A247" s="1" t="n">
+    </row>
+    <row r="247" spans="1:4">
+      <c r="A247" s="1">
         <v>245</v>
       </c>
-      <c r="B247" t="n">
+      <c r="B247">
         <v>-10.07481719683841</v>
       </c>
-      <c r="C247" t="n">
+      <c r="C247">
         <v>7.793434550534669</v>
       </c>
-      <c r="D247" t="n">
+      <c r="D247">
         <v>0.2879366914264484</v>
       </c>
-      <c r="E247" t="inlineStr"/>
-      <c r="F247" t="inlineStr"/>
-      <c r="G247" t="inlineStr"/>
-    </row>
-    <row r="248">
-      <c r="A248" s="1" t="n">
+    </row>
+    <row r="248" spans="1:4">
+      <c r="A248" s="1">
         <v>246</v>
       </c>
-      <c r="B248" t="n">
+      <c r="B248">
         <v>-10.59339395434712</v>
       </c>
-      <c r="C248" t="n">
+      <c r="C248">
         <v>7.603714092366169</v>
       </c>
-      <c r="D248" t="n">
+      <c r="D248">
         <v>-0.08781134954329188</v>
       </c>
-      <c r="E248" t="inlineStr"/>
-      <c r="F248" t="inlineStr"/>
-      <c r="G248" t="inlineStr"/>
-    </row>
-    <row r="249">
-      <c r="A249" s="1" t="n">
+    </row>
+    <row r="249" spans="1:4">
+      <c r="A249" s="1">
         <v>247</v>
       </c>
-      <c r="B249" t="n">
+      <c r="B249">
         <v>-11.03847224218014</v>
       </c>
-      <c r="C249" t="n">
+      <c r="C249">
         <v>7.440882929060295</v>
       </c>
-      <c r="D249" t="n">
+      <c r="D249">
         <v>-0.4103041961854078</v>
       </c>
-      <c r="E249" t="inlineStr"/>
-      <c r="F249" t="inlineStr"/>
-      <c r="G249" t="inlineStr"/>
-    </row>
-    <row r="250">
-      <c r="A250" s="1" t="n">
+    </row>
+    <row r="250" spans="1:4">
+      <c r="A250" s="1">
         <v>248</v>
       </c>
-      <c r="B250" t="n">
+      <c r="B250">
         <v>-11.40950055110726</v>
       </c>
-      <c r="C250" t="n">
+      <c r="C250">
         <v>7.305142829366461</v>
       </c>
-      <c r="D250" t="n">
+      <c r="D250">
         <v>-0.6791422383943092</v>
       </c>
-      <c r="E250" t="inlineStr"/>
-      <c r="F250" t="inlineStr"/>
-      <c r="G250" t="inlineStr"/>
-    </row>
-    <row r="251">
-      <c r="A251" s="1" t="n">
+    </row>
+    <row r="251" spans="1:4">
+      <c r="A251" s="1">
         <v>249</v>
       </c>
-      <c r="B251" t="n">
+      <c r="B251">
         <v>-11.71259307666756</v>
       </c>
-      <c r="C251" t="n">
+      <c r="C251">
         <v>7.194256924851581</v>
       </c>
-      <c r="D251" t="n">
+      <c r="D251">
         <v>-0.8987556727853374</v>
       </c>
-      <c r="E251" t="inlineStr"/>
-      <c r="F251" t="inlineStr"/>
-      <c r="G251" t="inlineStr"/>
-    </row>
-    <row r="252">
-      <c r="A252" s="1" t="n">
+    </row>
+    <row r="252" spans="1:4">
+      <c r="A252" s="1">
         <v>250</v>
       </c>
-      <c r="B252" t="n">
+      <c r="B252">
         <v>-11.96075233314154</v>
       </c>
-      <c r="C252" t="n">
+      <c r="C252">
         <v>7.103468266942619</v>
       </c>
-      <c r="D252" t="n">
+      <c r="D252">
         <v>-1.078565803336817</v>
       </c>
-      <c r="E252" t="inlineStr"/>
-      <c r="F252" t="inlineStr"/>
-      <c r="G252" t="inlineStr"/>
-    </row>
-    <row r="253">
-      <c r="A253" s="1" t="n">
+    </row>
+    <row r="253" spans="1:4">
+      <c r="A253" s="1">
         <v>251</v>
       </c>
-      <c r="B253" t="n">
+      <c r="B253">
         <v>-12.1664532182872</v>
       </c>
-      <c r="C253" t="n">
+      <c r="C253">
         <v>7.028212934707941</v>
       </c>
-      <c r="D253" t="n">
+      <c r="D253">
         <v>-1.227611635993372</v>
       </c>
-      <c r="E253" t="inlineStr"/>
-      <c r="F253" t="inlineStr"/>
-      <c r="G253" t="inlineStr"/>
-    </row>
-    <row r="254">
-      <c r="A254" s="1" t="n">
+    </row>
+    <row r="254" spans="1:4">
+      <c r="A254" s="1">
         <v>252</v>
       </c>
-      <c r="B254" t="n">
+      <c r="B254">
         <v>-12.33864067801274</v>
       </c>
-      <c r="C254" t="n">
+      <c r="C254">
         <v>6.965218434323972</v>
       </c>
-      <c r="D254" t="n">
+      <c r="D254">
         <v>-1.352374459885148</v>
       </c>
-      <c r="E254" t="inlineStr"/>
-      <c r="F254" t="inlineStr"/>
-      <c r="G254" t="inlineStr"/>
-    </row>
-    <row r="255">
-      <c r="A255" s="1" t="n">
+    </row>
+    <row r="255" spans="1:4">
+      <c r="A255" s="1">
         <v>253</v>
       </c>
-      <c r="B255" t="n">
+      <c r="B255">
         <v>-12.48269186872846</v>
       </c>
-      <c r="C255" t="n">
+      <c r="C255">
         <v>6.912517541916843</v>
       </c>
-      <c r="D255" t="n">
+      <c r="D255">
         <v>-1.456750431093001</v>
       </c>
-      <c r="E255" t="inlineStr"/>
-      <c r="F255" t="inlineStr"/>
-      <c r="G255" t="inlineStr"/>
-    </row>
-    <row r="256">
-      <c r="A256" s="1" t="n">
+    </row>
+    <row r="256" spans="1:4">
+      <c r="A256" s="1">
         <v>254</v>
       </c>
-      <c r="B256" t="n">
+      <c r="B256">
         <v>-12.59906648570824</v>
       </c>
-      <c r="C256" t="n">
+      <c r="C256">
         <v>6.869942078722818</v>
       </c>
-      <c r="D256" t="n">
+      <c r="D256">
         <v>-1.541072633574325</v>
       </c>
-      <c r="E256" t="inlineStr"/>
-      <c r="F256" t="inlineStr"/>
-      <c r="G256" t="inlineStr"/>
-    </row>
-    <row r="257">
-      <c r="A257" s="1" t="n">
+    </row>
+    <row r="257" spans="1:4">
+      <c r="A257" s="1">
         <v>255</v>
       </c>
-      <c r="B257" t="n">
+      <c r="B257">
         <v>-12.68045512689458</v>
       </c>
-      <c r="C257" t="n">
+      <c r="C257">
         <v>6.840166177524002</v>
       </c>
-      <c r="D257" t="n">
+      <c r="D257">
         <v>-1.600044853289435</v>
       </c>
-      <c r="E257" t="inlineStr"/>
-      <c r="F257" t="inlineStr"/>
-      <c r="G257" t="inlineStr"/>
-    </row>
-    <row r="258">
-      <c r="A258" s="1" t="n">
+    </row>
+    <row r="258" spans="1:4">
+      <c r="A258" s="1">
         <v>256</v>
       </c>
-      <c r="B258" t="n">
+      <c r="B258">
         <v>-12.71896079121423</v>
       </c>
-      <c r="C258" t="n">
+      <c r="C258">
         <v>6.826078943240877</v>
       </c>
-      <c r="D258" t="n">
+      <c r="D258">
         <v>-1.627945116316759</v>
       </c>
-      <c r="E258" t="inlineStr"/>
-      <c r="F258" t="inlineStr"/>
-      <c r="G258" t="inlineStr"/>
-    </row>
-    <row r="259">
-      <c r="A259" s="1" t="n">
+    </row>
+    <row r="259" spans="1:4">
+      <c r="A259" s="1">
         <v>257</v>
       </c>
-      <c r="B259" t="n">
+      <c r="B259">
         <v>-12.71080477253615</v>
       </c>
-      <c r="C259" t="n">
+      <c r="C259">
         <v>6.829062809328264</v>
       </c>
-      <c r="D259" t="n">
+      <c r="D259">
         <v>-1.622035464570842</v>
       </c>
-      <c r="E259" t="inlineStr"/>
-      <c r="F259" t="inlineStr"/>
-      <c r="G259" t="inlineStr"/>
-    </row>
-    <row r="260">
-      <c r="A260" s="1" t="n">
+    </row>
+    <row r="260" spans="1:4">
+      <c r="A260" s="1">
         <v>258</v>
       </c>
-      <c r="B260" t="n">
+      <c r="B260">
         <v>-12.65558968981697</v>
       </c>
-      <c r="C260" t="n">
+      <c r="C260">
         <v>6.849263156990621</v>
       </c>
-      <c r="D260" t="n">
+      <c r="D260">
         <v>-1.582027965462353</v>
       </c>
-      <c r="E260" t="inlineStr"/>
-      <c r="F260" t="inlineStr"/>
-      <c r="G260" t="inlineStr"/>
-    </row>
-    <row r="261">
-      <c r="A261" s="1" t="n">
+    </row>
+    <row r="261" spans="1:4">
+      <c r="A261" s="1">
         <v>259</v>
       </c>
-      <c r="B261" t="n">
+      <c r="B261">
         <v>-12.55471591704728</v>
       </c>
-      <c r="C261" t="n">
+      <c r="C261">
         <v>6.88616766169498</v>
       </c>
-      <c r="D261" t="n">
+      <c r="D261">
         <v>-1.508937295750258</v>
       </c>
-      <c r="E261" t="inlineStr"/>
-      <c r="F261" t="inlineStr"/>
-      <c r="G261" t="inlineStr"/>
-    </row>
-    <row r="262">
-      <c r="A262" s="1" t="n">
+    </row>
+    <row r="262" spans="1:4">
+      <c r="A262" s="1">
         <v>260</v>
       </c>
-      <c r="B262" t="n">
+      <c r="B262">
         <v>-12.40983322366787</v>
       </c>
-      <c r="C262" t="n">
+      <c r="C262">
         <v>6.939172757991</v>
       </c>
-      <c r="D262" t="n">
+      <c r="D262">
         <v>-1.403958838039846</v>
       </c>
-      <c r="E262" t="inlineStr"/>
-      <c r="F262" t="inlineStr"/>
-      <c r="G262" t="inlineStr"/>
-    </row>
-    <row r="263">
-      <c r="A263" s="1" t="n">
+    </row>
+    <row r="263" spans="1:4">
+      <c r="A263" s="1">
         <v>261</v>
       </c>
-      <c r="B263" t="n">
+      <c r="B263">
         <v>-12.22132298984382</v>
       </c>
-      <c r="C263" t="n">
+      <c r="C263">
         <v>7.008138918569357</v>
       </c>
-      <c r="D263" t="n">
+      <c r="D263">
         <v>-1.267368931075215</v>
       </c>
-      <c r="E263" t="inlineStr"/>
-      <c r="F263" t="inlineStr"/>
-      <c r="G263" t="inlineStr"/>
-    </row>
-    <row r="264">
-      <c r="A264" s="1" t="n">
+    </row>
+    <row r="264" spans="1:4">
+      <c r="A264" s="1">
         <v>262</v>
       </c>
-      <c r="B264" t="n">
+      <c r="B264">
         <v>-11.9900780173233</v>
       </c>
-      <c r="C264" t="n">
+      <c r="C264">
         <v>7.092739513371409</v>
       </c>
-      <c r="D264" t="n">
+      <c r="D264">
         <v>-1.099814477176981</v>
       </c>
-      <c r="E264" t="inlineStr"/>
-      <c r="F264" t="inlineStr"/>
-      <c r="G264" t="inlineStr"/>
-    </row>
-    <row r="265">
-      <c r="A265" s="1" t="n">
+    </row>
+    <row r="265" spans="1:4">
+      <c r="A265" s="1">
         <v>263</v>
       </c>
-      <c r="B265" t="n">
+      <c r="B265">
         <v>-11.71899919331957</v>
       </c>
-      <c r="C265" t="n">
+      <c r="C265">
         <v>7.191913257557007</v>
       </c>
-      <c r="D265" t="n">
+      <c r="D265">
         <v>-0.9033973883025909</v>
       </c>
-      <c r="E265" t="inlineStr"/>
-      <c r="F265" t="inlineStr"/>
-      <c r="G265" t="inlineStr"/>
-    </row>
-    <row r="266">
-      <c r="A266" s="1" t="n">
+    </row>
+    <row r="266" spans="1:4">
+      <c r="A266" s="1">
         <v>264</v>
       </c>
-      <c r="B266" t="n">
+      <c r="B266">
         <v>-11.4114365159829</v>
       </c>
-      <c r="C266" t="n">
+      <c r="C266">
         <v>7.3044345597846</v>
       </c>
-      <c r="D266" t="n">
+      <c r="D266">
         <v>-0.680544991215127</v>
       </c>
-      <c r="E266" t="inlineStr"/>
-      <c r="F266" t="inlineStr"/>
-      <c r="G266" t="inlineStr"/>
-    </row>
-    <row r="267">
-      <c r="A267" s="1" t="n">
+    </row>
+    <row r="267" spans="1:4">
+      <c r="A267" s="1">
         <v>265</v>
       </c>
-      <c r="B267" t="n">
+      <c r="B267">
         <v>-11.0713424131393</v>
       </c>
-      <c r="C267" t="n">
+      <c r="C267">
         <v>7.428857430801544</v>
       </c>
-      <c r="D267" t="n">
+      <c r="D267">
         <v>-0.4341211184932657</v>
       </c>
-      <c r="E267" t="inlineStr"/>
-      <c r="F267" t="inlineStr"/>
-      <c r="G267" t="inlineStr"/>
-    </row>
-    <row r="268">
-      <c r="A268" s="1" t="n">
+    </row>
+    <row r="268" spans="1:4">
+      <c r="A268" s="1">
         <v>266</v>
       </c>
-      <c r="B268" t="n">
+      <c r="B268">
         <v>-10.70916189653316</v>
       </c>
-      <c r="C268" t="n">
+      <c r="C268">
         <v>7.561360580152711</v>
       </c>
-      <c r="D268" t="n">
+      <c r="D268">
         <v>-0.1716939703003037</v>
       </c>
-      <c r="E268" t="inlineStr"/>
-      <c r="F268" t="inlineStr"/>
-      <c r="G268" t="inlineStr"/>
-    </row>
-    <row r="269">
-      <c r="A269" s="1" t="n">
+    </row>
+    <row r="269" spans="1:4">
+      <c r="A269" s="1">
         <v>267</v>
       </c>
-      <c r="B269" t="n">
+      <c r="B269">
         <v>-10.34059502478466</v>
       </c>
-      <c r="C269" t="n">
+      <c r="C269">
         <v>7.696200167082486</v>
       </c>
-      <c r="D269" t="n">
+      <c r="D269">
         <v>0.09536057470313107</v>
       </c>
-      <c r="E269" t="inlineStr"/>
-      <c r="F269" t="inlineStr"/>
-      <c r="G269" t="inlineStr"/>
-    </row>
-    <row r="270">
-      <c r="A270" s="1" t="n">
+    </row>
+    <row r="270" spans="1:4">
+      <c r="A270" s="1">
         <v>268</v>
       </c>
-      <c r="B270" t="n">
+      <c r="B270">
         <v>-9.982898076168668</v>
       </c>
-      <c r="C270" t="n">
+      <c r="C270">
         <v>7.827063010421083</v>
       </c>
-      <c r="D270" t="n">
+      <c r="D270">
         <v>0.354539039139139</v>
       </c>
-      <c r="E270" t="inlineStr"/>
-      <c r="F270" t="inlineStr"/>
-      <c r="G270" t="inlineStr"/>
-    </row>
-    <row r="271">
-      <c r="A271" s="1" t="n">
+    </row>
+    <row r="271" spans="1:4">
+      <c r="A271" s="1">
         <v>269</v>
       </c>
-      <c r="B271" t="n">
+      <c r="B271">
         <v>-9.650607877124656</v>
       </c>
-      <c r="C271" t="n">
+      <c r="C271">
         <v>7.948630836002762</v>
       </c>
-      <c r="D271" t="n">
+      <c r="D271">
         <v>0.5953083939479779</v>
       </c>
-      <c r="E271" t="inlineStr"/>
-      <c r="F271" t="inlineStr"/>
-      <c r="G271" t="inlineStr"/>
-    </row>
-    <row r="272">
-      <c r="A272" s="1" t="n">
+    </row>
+    <row r="272" spans="1:4">
+      <c r="A272" s="1">
         <v>270</v>
       </c>
-      <c r="B272" t="n">
+      <c r="B272">
         <v>-9.358087324967757</v>
       </c>
-      <c r="C272" t="n">
+      <c r="C272">
         <v>8.055649001347316</v>
       </c>
-      <c r="D272" t="n">
+      <c r="D272">
         <v>0.807261634861393</v>
       </c>
-      <c r="E272" t="inlineStr"/>
-      <c r="F272" t="inlineStr"/>
-      <c r="G272" t="inlineStr"/>
-    </row>
-    <row r="273">
-      <c r="A273" s="1" t="n">
+    </row>
+    <row r="273" spans="1:4">
+      <c r="A273" s="1">
         <v>271</v>
       </c>
-      <c r="B273" t="n">
+      <c r="B273">
         <v>-9.116348554953641</v>
       </c>
-      <c r="C273" t="n">
+      <c r="C273">
         <v>8.144088734791012</v>
       </c>
-      <c r="D273" t="n">
+      <c r="D273">
         <v>0.9824196378841413</v>
       </c>
-      <c r="E273" t="inlineStr"/>
-      <c r="F273" t="inlineStr"/>
-      <c r="G273" t="inlineStr"/>
-    </row>
-    <row r="274">
-      <c r="A274" s="1" t="n">
+    </row>
+    <row r="274" spans="1:4">
+      <c r="A274" s="1">
         <v>272</v>
       </c>
-      <c r="B274" t="n">
+      <c r="B274">
         <v>-8.932885855971389</v>
       </c>
-      <c r="C274" t="n">
+      <c r="C274">
         <v>8.211208263006963</v>
       </c>
-      <c r="D274" t="n">
+      <c r="D274">
         <v>1.115352224498272</v>
       </c>
-      <c r="E274" t="inlineStr"/>
-      <c r="F274" t="inlineStr"/>
-      <c r="G274" t="inlineStr"/>
-    </row>
-    <row r="275">
-      <c r="A275" s="1" t="n">
+    </row>
+    <row r="275" spans="1:4">
+      <c r="A275" s="1">
         <v>273</v>
       </c>
-      <c r="B275" t="n">
+      <c r="B275">
         <v>-8.813352230831006</v>
       </c>
-      <c r="C275" t="n">
+      <c r="C275">
         <v>8.254939444167341</v>
       </c>
-      <c r="D275" t="n">
+      <c r="D275">
         <v>1.201963367065254</v>
       </c>
-      <c r="E275" t="inlineStr"/>
-      <c r="F275" t="inlineStr"/>
-      <c r="G275" t="inlineStr"/>
-    </row>
-    <row r="276">
-      <c r="A276" s="1" t="n">
+    </row>
+    <row r="276" spans="1:4">
+      <c r="A276" s="1">
         <v>274</v>
       </c>
-      <c r="B276" t="n">
+      <c r="B276">
         <v>-8.76272412087855</v>
       </c>
-      <c r="C276" t="n">
+      <c r="C276">
         <v>8.273461655348825</v>
       </c>
-      <c r="D276" t="n">
+      <c r="D276">
         <v>1.238647257843595</v>
       </c>
-      <c r="E276" t="inlineStr"/>
-      <c r="F276" t="inlineStr"/>
-      <c r="G276" t="inlineStr"/>
-    </row>
-    <row r="277">
-      <c r="A277" s="1" t="n">
+    </row>
+    <row r="277" spans="1:4">
+      <c r="A277" s="1">
         <v>275</v>
       </c>
-      <c r="B277" t="n">
+      <c r="B277">
         <v>-8.783031309360958</v>
       </c>
-      <c r="C277" t="n">
+      <c r="C277">
         <v>8.266032303671929</v>
       </c>
-      <c r="D277" t="n">
+      <c r="D277">
         <v>1.223933165514188</v>
       </c>
-      <c r="E277" t="inlineStr"/>
-      <c r="F277" t="inlineStr"/>
-      <c r="G277" t="inlineStr"/>
-    </row>
-    <row r="278">
-      <c r="A278" s="1" t="n">
+    </row>
+    <row r="278" spans="1:4">
+      <c r="A278" s="1">
         <v>276</v>
       </c>
-      <c r="B278" t="n">
+      <c r="B278">
         <v>-8.872964824598027</v>
       </c>
-      <c r="C278" t="n">
+      <c r="C278">
         <v>8.233130274283939</v>
       </c>
-      <c r="D278" t="n">
+      <c r="D278">
         <v>1.158769538956391</v>
       </c>
-      <c r="E278" t="inlineStr"/>
-      <c r="F278" t="inlineStr"/>
-      <c r="G278" t="inlineStr"/>
-    </row>
-    <row r="279">
-      <c r="A279" s="1" t="n">
+    </row>
+    <row r="279" spans="1:4">
+      <c r="A279" s="1">
         <v>277</v>
       </c>
-      <c r="B279" t="n">
+      <c r="B279">
         <v>-9.026372163154512</v>
       </c>
-      <c r="C279" t="n">
+      <c r="C279">
         <v>8.177006450499071</v>
       </c>
-      <c r="D279" t="n">
+      <c r="D279">
         <v>1.047614331750613</v>
       </c>
-      <c r="E279" t="inlineStr"/>
-      <c r="F279" t="inlineStr"/>
-      <c r="G279" t="inlineStr"/>
-    </row>
-    <row r="280">
-      <c r="A280" s="1" t="n">
+    </row>
+    <row r="280" spans="1:4">
+      <c r="A280" s="1">
         <v>278</v>
       </c>
-      <c r="B280" t="n">
+      <c r="B280">
         <v>-9.232317086130296</v>
       </c>
-      <c r="C280" t="n">
+      <c r="C280">
         <v>8.10166183742357</v>
       </c>
-      <c r="D280" t="n">
+      <c r="D280">
         <v>0.8983916752482841</v>
       </c>
-      <c r="E280" t="inlineStr"/>
-      <c r="F280" t="inlineStr"/>
-      <c r="G280" t="inlineStr"/>
-    </row>
-    <row r="281">
-      <c r="A281" s="1" t="n">
+    </row>
+    <row r="281" spans="1:4">
+      <c r="A281" s="1">
         <v>279</v>
       </c>
-      <c r="B281" t="n">
+      <c r="B281">
         <v>-9.475669111576133</v>
       </c>
-      <c r="C281" t="n">
+      <c r="C281">
         <v>8.012631897120007</v>
       </c>
-      <c r="D281" t="n">
+      <c r="D281">
         <v>0.7220647467785772</v>
       </c>
-      <c r="E281" t="inlineStr"/>
-      <c r="F281" t="inlineStr"/>
-      <c r="G281" t="inlineStr"/>
-    </row>
-    <row r="282">
-      <c r="A282" s="1" t="n">
+    </row>
+    <row r="282" spans="1:4">
+      <c r="A282" s="1">
         <v>280</v>
       </c>
-      <c r="B282" t="n">
+      <c r="B282">
         <v>-9.739523553601957</v>
       </c>
-      <c r="C282" t="n">
+      <c r="C282">
         <v>7.916101181259506</v>
       </c>
-      <c r="D282" t="n">
+      <c r="D282">
         <v>0.5308822684726503</v>
       </c>
-      <c r="E282" t="inlineStr"/>
-      <c r="F282" t="inlineStr"/>
-      <c r="G282" t="inlineStr"/>
-    </row>
-    <row r="283">
-      <c r="A283" s="1" t="n">
+    </row>
+    <row r="283" spans="1:4">
+      <c r="A283" s="1">
         <v>281</v>
       </c>
-      <c r="B283" t="n">
+      <c r="B283">
         <v>-10.006345044322</v>
       </c>
-      <c r="C283" t="n">
+      <c r="C283">
         <v>7.818484975489315</v>
       </c>
-      <c r="D283" t="n">
+      <c r="D283">
         <v>0.3375499392176151</v>
       </c>
-      <c r="E283" t="inlineStr"/>
-      <c r="F283" t="inlineStr"/>
-      <c r="G283" t="inlineStr"/>
-    </row>
-    <row r="284">
-      <c r="A284" s="1" t="n">
+    </row>
+    <row r="284" spans="1:4">
+      <c r="A284" s="1">
         <v>282</v>
       </c>
-      <c r="B284" t="n">
+      <c r="B284">
         <v>-10.25945544028612</v>
       </c>
-      <c r="C284" t="n">
+      <c r="C284">
         <v>7.725884951299616</v>
       </c>
-      <c r="D284" t="n">
+      <c r="D284">
         <v>0.1541523340308967</v>
       </c>
-      <c r="E284" t="inlineStr"/>
-      <c r="F284" t="inlineStr"/>
-      <c r="G284" t="inlineStr"/>
-    </row>
-    <row r="285">
-      <c r="A285" s="1" t="n">
+    </row>
+    <row r="285" spans="1:4">
+      <c r="A285" s="1">
         <v>283</v>
       </c>
-      <c r="B285" t="n">
+      <c r="B285">
         <v>-10.48505482464839</v>
       </c>
-      <c r="C285" t="n">
+      <c r="C285">
         <v>7.64334978568718</v>
       </c>
-      <c r="D285" t="n">
+      <c r="D285">
         <v>-0.00931146470419901</v>
       </c>
-      <c r="E285" t="inlineStr"/>
-      <c r="F285" t="inlineStr"/>
-      <c r="G285" t="inlineStr"/>
-    </row>
-    <row r="286">
-      <c r="A286" s="1" t="n">
+    </row>
+    <row r="286" spans="1:4">
+      <c r="A286" s="1">
         <v>284</v>
       </c>
-      <c r="B286" t="n">
+      <c r="B286">
         <v>-10.67536461913992</v>
       </c>
-      <c r="C286" t="n">
+      <c r="C286">
         <v>7.573725258783311</v>
       </c>
-      <c r="D286" t="n">
+      <c r="D286">
         <v>-0.1472052893350602</v>
       </c>
-      <c r="E286" t="inlineStr"/>
-      <c r="F286" t="inlineStr"/>
-      <c r="G286" t="inlineStr"/>
-    </row>
-    <row r="287">
-      <c r="A287" s="1" t="n">
+    </row>
+    <row r="287" spans="1:4">
+      <c r="A287" s="1">
         <v>285</v>
       </c>
-      <c r="B287" t="n">
+      <c r="B287">
         <v>-10.82735688883458</v>
       </c>
-      <c r="C287" t="n">
+      <c r="C287">
         <v>7.518119135626014</v>
       </c>
-      <c r="D287" t="n">
+      <c r="D287">
         <v>-0.257335172237406</v>
       </c>
-      <c r="E287" t="inlineStr"/>
-      <c r="F287" t="inlineStr"/>
-      <c r="G287" t="inlineStr"/>
-    </row>
-    <row r="288">
-      <c r="A288" s="1" t="n">
+    </row>
+    <row r="288" spans="1:4">
+      <c r="A288" s="1">
         <v>286</v>
       </c>
-      <c r="B288" t="n">
+      <c r="B288">
         <v>-10.9441057803107</v>
       </c>
-      <c r="C288" t="n">
+      <c r="C288">
         <v>7.475406744719945</v>
       </c>
-      <c r="D288" t="n">
+      <c r="D288">
         <v>-0.3419285648689756</v>
       </c>
-      <c r="E288" t="inlineStr"/>
-      <c r="F288" t="inlineStr"/>
-      <c r="G288" t="inlineStr"/>
-    </row>
-    <row r="289">
-      <c r="A289" s="1" t="n">
+    </row>
+    <row r="289" spans="1:4">
+      <c r="A289" s="1">
         <v>287</v>
       </c>
-      <c r="B289" t="n">
+      <c r="B289">
         <v>-11.03509361115093</v>
       </c>
-      <c r="C289" t="n">
+      <c r="C289">
         <v>7.442118995693756</v>
       </c>
-      <c r="D289" t="n">
+      <c r="D289">
         <v>-0.4078561227382184</v>
       </c>
-      <c r="E289" t="inlineStr"/>
-      <c r="F289" t="inlineStr"/>
-      <c r="G289" t="inlineStr"/>
-    </row>
-    <row r="290">
-      <c r="A290" s="1" t="n">
+    </row>
+    <row r="290" spans="1:4">
+      <c r="A290" s="1">
         <v>288</v>
       </c>
-      <c r="B290" t="n">
+      <c r="B290">
         <v>-11.11368204604449</v>
       </c>
-      <c r="C290" t="n">
+      <c r="C290">
         <v>7.413367545385068</v>
       </c>
-      <c r="D290" t="n">
+      <c r="D290">
         <v>-0.4647993814295572</v>
       </c>
-      <c r="E290" t="inlineStr"/>
-      <c r="F290" t="inlineStr"/>
-      <c r="G290" t="inlineStr"/>
-    </row>
-    <row r="291">
-      <c r="A291" s="1" t="n">
+    </row>
+    <row r="291" spans="1:4">
+      <c r="A291" s="1">
         <v>289</v>
       </c>
-      <c r="B291" t="n">
+      <c r="B291">
         <v>-11.193553722056</v>
       </c>
-      <c r="C291" t="n">
+      <c r="C291">
         <v>7.384146623413192</v>
       </c>
-      <c r="D291" t="n">
+      <c r="D291">
         <v>-0.5226724452638779</v>
       </c>
-      <c r="E291" t="inlineStr"/>
-      <c r="F291" t="inlineStr"/>
-      <c r="G291" t="inlineStr"/>
-    </row>
-    <row r="292">
-      <c r="A292" s="1" t="n">
+    </row>
+    <row r="292" spans="1:4">
+      <c r="A292" s="1">
         <v>290</v>
       </c>
-      <c r="B292" t="n">
+      <c r="B292">
         <v>-11.28702109388699</v>
       </c>
-      <c r="C292" t="n">
+      <c r="C292">
         <v>7.349951738372894</v>
       </c>
-      <c r="D292" t="n">
+      <c r="D292">
         <v>-0.5903966179182873</v>
       </c>
-      <c r="E292" t="inlineStr"/>
-      <c r="F292" t="inlineStr"/>
-      <c r="G292" t="inlineStr"/>
-    </row>
-    <row r="293">
-      <c r="A293" s="1" t="n">
+    </row>
+    <row r="293" spans="1:4">
+      <c r="A293" s="1">
         <v>291</v>
       </c>
-      <c r="B293" t="n">
+      <c r="B293">
         <v>-11.40665204807553</v>
       </c>
-      <c r="C293" t="n">
+      <c r="C293">
         <v>7.306184949539513</v>
       </c>
-      <c r="D293" t="n">
+      <c r="D293">
         <v>-0.6770782827341794</v>
       </c>
-      <c r="E293" t="inlineStr"/>
-      <c r="F293" t="inlineStr"/>
-      <c r="G293" t="inlineStr"/>
-    </row>
-    <row r="294">
-      <c r="A294" s="1" t="n">
+    </row>
+    <row r="294" spans="1:4">
+      <c r="A294" s="1">
         <v>292</v>
       </c>
-      <c r="B294" t="n">
+      <c r="B294">
         <v>-11.56096655477184</v>
       </c>
-      <c r="C294" t="n">
+      <c r="C294">
         <v>7.249729239775123</v>
       </c>
-      <c r="D294" t="n">
+      <c r="D294">
         <v>-0.7888908017967535</v>
       </c>
-      <c r="E294" t="inlineStr"/>
-      <c r="F294" t="inlineStr"/>
-      <c r="G294" t="inlineStr"/>
-    </row>
-    <row r="295">
-      <c r="A295" s="1" t="n">
+    </row>
+    <row r="295" spans="1:4">
+      <c r="A295" s="1">
         <v>293</v>
       </c>
-      <c r="B295" t="n">
+      <c r="B295">
         <v>-11.75306436803386</v>
       </c>
-      <c r="C295" t="n">
+      <c r="C295">
         <v>7.179450569129869</v>
       </c>
-      <c r="D295" t="n">
+      <c r="D295">
         <v>-0.9280801811174511</v>
       </c>
-      <c r="E295" t="inlineStr"/>
-      <c r="F295" t="inlineStr"/>
-      <c r="G295" t="inlineStr"/>
-    </row>
-    <row r="296">
-      <c r="A296" s="1" t="n">
+    </row>
+    <row r="296" spans="1:4">
+      <c r="A296" s="1">
         <v>294</v>
       </c>
-      <c r="B296" t="n">
+      <c r="B296">
         <v>-11.9796060844212</v>
       </c>
-      <c r="C296" t="n">
+      <c r="C296">
         <v>7.096570652888034</v>
       </c>
-      <c r="D296" t="n">
+      <c r="D296">
         <v>-1.092226770600946</v>
       </c>
-      <c r="E296" t="inlineStr"/>
-      <c r="F296" t="inlineStr"/>
-      <c r="G296" t="inlineStr"/>
-    </row>
-    <row r="297">
-      <c r="A297" s="1" t="n">
+    </row>
+    <row r="297" spans="1:4">
+      <c r="A297" s="1">
         <v>295</v>
       </c>
-      <c r="B297" t="n">
+      <c r="B297">
         <v>-12.23418234508114</v>
       </c>
-      <c r="C297" t="n">
+      <c r="C297">
         <v>7.003434344498017</v>
       </c>
-      <c r="D297" t="n">
+      <c r="D297">
         <v>-1.276686505510615</v>
       </c>
-      <c r="E297" t="inlineStr"/>
-      <c r="F297" t="inlineStr"/>
-      <c r="G297" t="inlineStr"/>
-    </row>
-    <row r="298">
-      <c r="A298" s="1" t="n">
+    </row>
+    <row r="298" spans="1:4">
+      <c r="A298" s="1">
         <v>296</v>
       </c>
-      <c r="B298" t="n">
+      <c r="B298">
         <v>-12.50443087865056</v>
       </c>
-      <c r="C298" t="n">
+      <c r="C298">
         <v>6.904564360709176</v>
       </c>
-      <c r="D298" t="n">
+      <c r="D298">
         <v>-1.472501986234218</v>
       </c>
-      <c r="E298" t="inlineStr"/>
-      <c r="F298" t="inlineStr"/>
-      <c r="G298" t="inlineStr"/>
-    </row>
-    <row r="299">
-      <c r="A299" s="1" t="n">
+    </row>
+    <row r="299" spans="1:4">
+      <c r="A299" s="1">
         <v>297</v>
       </c>
-      <c r="B299" t="n">
+      <c r="B299">
         <v>-12.77622831705383</v>
       </c>
-      <c r="C299" t="n">
+      <c r="C299">
         <v>6.805127712621402</v>
       </c>
-      <c r="D299" t="n">
+      <c r="D299">
         <v>-1.669439765534723</v>
       </c>
-      <c r="E299" t="inlineStr"/>
-      <c r="F299" t="inlineStr"/>
-      <c r="G299" t="inlineStr"/>
-    </row>
-    <row r="300">
-      <c r="A300" s="1" t="n">
+    </row>
+    <row r="300" spans="1:4">
+      <c r="A300" s="1">
         <v>298</v>
       </c>
-      <c r="B300" t="n">
+      <c r="B300">
         <v>-13.03331106097166</v>
       </c>
-      <c r="C300" t="n">
+      <c r="C300">
         <v>6.711074411432935</v>
       </c>
-      <c r="D300" t="n">
+      <c r="D300">
         <v>-1.855715636937669</v>
       </c>
-      <c r="E300" t="inlineStr"/>
-      <c r="F300" t="inlineStr"/>
-      <c r="G300" t="inlineStr"/>
-    </row>
-    <row r="301">
-      <c r="A301" s="1" t="n">
+    </row>
+    <row r="301" spans="1:4">
+      <c r="A301" s="1">
         <v>299</v>
       </c>
-      <c r="B301" t="n">
+      <c r="B301">
         <v>-13.26359971335724</v>
       </c>
-      <c r="C301" t="n">
+      <c r="C301">
         <v>6.626823684787394</v>
       </c>
-      <c r="D301" t="n">
+      <c r="D301">
         <v>-2.022577164645044</v>
       </c>
-      <c r="E301" t="inlineStr"/>
-      <c r="F301" t="inlineStr"/>
-      <c r="G301" t="inlineStr"/>
-    </row>
-    <row r="302">
-      <c r="A302" s="1" t="n">
+    </row>
+    <row r="302" spans="1:4">
+      <c r="A302" s="1">
         <v>300</v>
       </c>
-      <c r="B302" t="n">
+      <c r="B302">
         <v>-13.45422738670095</v>
       </c>
-      <c r="C302" t="n">
+      <c r="C302">
         <v>6.557082862425611</v>
       </c>
-      <c r="D302" t="n">
+      <c r="D302">
         <v>-2.160701316521086</v>
       </c>
-      <c r="E302" t="inlineStr"/>
-      <c r="F302" t="inlineStr"/>
-      <c r="G302" t="inlineStr"/>
-    </row>
-    <row r="303">
-      <c r="A303" s="1" t="n">
+    </row>
+    <row r="303" spans="1:4">
+      <c r="A303" s="1">
         <v>301</v>
       </c>
-      <c r="B303" t="n">
+      <c r="B303">
         <v>-13.59847816571548</v>
       </c>
-      <c r="C303" t="n">
+      <c r="C303">
         <v>6.504308950965957</v>
       </c>
-      <c r="D303" t="n">
+      <c r="D303">
         <v>-2.265221904530968</v>
       </c>
-      <c r="E303" t="inlineStr"/>
-      <c r="F303" t="inlineStr"/>
-      <c r="G303" t="inlineStr"/>
-    </row>
-    <row r="304">
-      <c r="A304" s="1" t="n">
+    </row>
+    <row r="304" spans="1:4">
+      <c r="A304" s="1">
         <v>302</v>
       </c>
-      <c r="B304" t="n">
+      <c r="B304">
         <v>-13.68803392763555</v>
       </c>
-      <c r="C304" t="n">
+      <c r="C304">
         <v>6.471545122010857</v>
       </c>
-      <c r="D304" t="n">
+      <c r="D304">
         <v>-2.330111820270115</v>
       </c>
-      <c r="E304" t="inlineStr"/>
-      <c r="F304" t="inlineStr"/>
-      <c r="G304" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>